--- a/cartinhas.xlsx
+++ b/cartinhas.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="jogadores" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="times" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">jogadores!$A$1:$Y$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">jogadores!$A$1:$Y$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="119">
   <si>
     <t xml:space="preserve">nick</t>
   </si>
@@ -125,256 +125,262 @@
     <t xml:space="preserve">PNG</t>
   </si>
   <si>
+    <t xml:space="preserve">pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aegis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red cannids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ninjakiwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frosty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netuno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">los grandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fnb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yampi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dynquedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluxo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disamis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">envy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prodelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grevthar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nosferus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zzk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tinowns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cariok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hauz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lonely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liberty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flawless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rav3n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krastiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juliera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">croc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aoshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maestro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beelzy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stardust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">von</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alocs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">média</t>
+  </si>
+  <si>
     <t xml:space="preserve">pain gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aegis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red cannids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ninjakiwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frosty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">netuno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">los grandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fnb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yampi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynquedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fluxo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disamis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">envy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prodelta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grevthar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nosferus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zzk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">betao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tinowns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cariok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hauz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lonely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KBM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kabum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kiari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liberty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flawless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avenger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rav3n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krastiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juliera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">croc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aoshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maestro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beelzy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nelson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turtle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stardust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">von</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alocs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sickness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">média</t>
   </si>
 </sst>
 </file>
@@ -665,16 +671,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -753,7 +759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -781,7 +787,7 @@
       </c>
       <c r="I2" s="1" t="n">
         <f aca="false">AVERAGE(J2:Y2)</f>
-        <v>90.5</v>
+        <v>87.3333333333333</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>88</v>
@@ -789,8 +795,11 @@
       <c r="K2" s="1" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -818,13 +827,16 @@
       </c>
       <c r="I3" s="1" t="n">
         <f aca="false">AVERAGE(J3:Y3)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>80</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,7 +848,7 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">D4&amp;E4</f>
-        <v>pain gamingADC</v>
+        <v>painADC</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
@@ -851,11 +863,11 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="n">
         <f aca="false">AVERAGE(J4:Y4)</f>
-        <v>85.5</v>
+        <v>86</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>81</v>
@@ -863,8 +875,11 @@
       <c r="K4" s="1" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -885,14 +900,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="n">
         <f aca="false">AVERAGE(J5:Y5)</f>
-        <v>85.5</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>81</v>
@@ -900,8 +915,11 @@
       <c r="K5" s="1" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -925,11 +943,11 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1" t="n">
         <f aca="false">AVERAGE(J6:Y6)</f>
-        <v>84</v>
+        <v>84.3333333333333</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>88</v>
@@ -937,8 +955,11 @@
       <c r="K6" s="1" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -974,6 +995,9 @@
       <c r="K7" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="L7" s="0" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -984,7 +1008,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">D8&amp;E8</f>
-        <v>pain gamingTOP</v>
+        <v>painTOP</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
@@ -1003,7 +1027,7 @@
       </c>
       <c r="I8" s="1" t="n">
         <f aca="false">AVERAGE(J8:Y8)</f>
-        <v>84</v>
+        <v>82.6666666666667</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>76</v>
@@ -1011,8 +1035,11 @@
       <c r="K8" s="1" t="n">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1030,17 +1057,17 @@
         <v>28</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1" t="n">
         <f aca="false">AVERAGE(J9:Y9)</f>
-        <v>82.5</v>
+        <v>86.6666666666667</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>81</v>
@@ -1048,8 +1075,11 @@
       <c r="K9" s="1" t="n">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L9" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1077,7 +1107,7 @@
       </c>
       <c r="I10" s="1" t="n">
         <f aca="false">AVERAGE(J10:Y10)</f>
-        <v>82</v>
+        <v>79.6666666666667</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>73</v>
@@ -1085,8 +1115,11 @@
       <c r="K10" s="1" t="n">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1114,7 +1147,7 @@
       </c>
       <c r="I11" s="1" t="n">
         <f aca="false">AVERAGE(J11:Y11)</f>
-        <v>82</v>
+        <v>82.6666666666667</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>83</v>
@@ -1122,8 +1155,11 @@
       <c r="K11" s="1" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1151,7 +1187,7 @@
       </c>
       <c r="I12" s="1" t="n">
         <f aca="false">AVERAGE(J12:Y12)</f>
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>91</v>
@@ -1159,8 +1195,11 @@
       <c r="K12" s="1" t="n">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -1188,7 +1227,7 @@
       </c>
       <c r="I13" s="1" t="n">
         <f aca="false">AVERAGE(J13:Y13)</f>
-        <v>81.5</v>
+        <v>82.6666666666667</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>85</v>
@@ -1196,8 +1235,11 @@
       <c r="K13" s="1" t="n">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -1233,6 +1275,9 @@
       <c r="K14" s="1" t="n">
         <v>91</v>
       </c>
+      <c r="L14" s="0" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -1243,7 +1288,7 @@
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">D15&amp;E15</f>
-        <v>pain gamingMID</v>
+        <v>painMID</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>33</v>
@@ -1255,14 +1300,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="n">
         <f aca="false">AVERAGE(J15:Y15)</f>
-        <v>80</v>
+        <v>78.6666666666667</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>73</v>
@@ -1270,8 +1315,11 @@
       <c r="K15" s="1" t="n">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1295,11 +1343,11 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="n">
         <f aca="false">AVERAGE(J16:Y16)</f>
-        <v>79</v>
+        <v>82.6666666666667</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>80</v>
@@ -1307,8 +1355,11 @@
       <c r="K16" s="1" t="n">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1332,11 +1383,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1" t="n">
         <f aca="false">AVERAGE(J17:Y17)</f>
-        <v>79</v>
+        <v>82.3333333333333</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>75</v>
@@ -1344,8 +1395,11 @@
       <c r="K17" s="1" t="n">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="0" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1373,7 +1427,7 @@
       </c>
       <c r="I18" s="1" t="n">
         <f aca="false">AVERAGE(J18:Y18)</f>
-        <v>79</v>
+        <v>80.3333333333333</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>78</v>
@@ -1381,8 +1435,11 @@
       <c r="K18" s="1" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1403,14 +1460,14 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="n">
         <f aca="false">AVERAGE(J19:Y19)</f>
-        <v>79</v>
+        <v>78.3333333333333</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>70</v>
@@ -1418,8 +1475,11 @@
       <c r="K19" s="1" t="n">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1447,7 +1507,7 @@
       </c>
       <c r="I20" s="1" t="n">
         <f aca="false">AVERAGE(J20:Y20)</f>
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>80</v>
@@ -1455,8 +1515,11 @@
       <c r="K20" s="1" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1484,13 +1547,16 @@
       </c>
       <c r="I21" s="1" t="n">
         <f aca="false">AVERAGE(J21:Y21)</f>
-        <v>78.5</v>
+        <v>81</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>82</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,7 +1568,7 @@
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">D22&amp;E22</f>
-        <v>pain gamingSUP</v>
+        <v>painSUP</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>33</v>
@@ -1521,7 +1587,7 @@
       </c>
       <c r="I22" s="1" t="n">
         <f aca="false">AVERAGE(J22:Y22)</f>
-        <v>78.5</v>
+        <v>78.3333333333333</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>72</v>
@@ -1529,8 +1595,11 @@
       <c r="K22" s="1" t="n">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L22" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1558,7 +1627,7 @@
       </c>
       <c r="I23" s="1" t="n">
         <f aca="false">AVERAGE(J23:Y23)</f>
-        <v>77.5</v>
+        <v>77.3333333333333</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>88</v>
@@ -1566,8 +1635,11 @@
       <c r="K23" s="1" t="n">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1595,7 +1667,7 @@
       </c>
       <c r="I24" s="1" t="n">
         <f aca="false">AVERAGE(J24:Y24)</f>
-        <v>76.5</v>
+        <v>78.3333333333333</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>72</v>
@@ -1603,8 +1675,11 @@
       <c r="K24" s="1" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1628,11 +1703,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1" t="n">
         <f aca="false">AVERAGE(J25:Y25)</f>
-        <v>76.5</v>
+        <v>79.6666666666667</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>67</v>
@@ -1640,8 +1715,11 @@
       <c r="K25" s="1" t="n">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L25" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -1665,11 +1743,11 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1" t="n">
         <f aca="false">AVERAGE(J26:Y26)</f>
-        <v>76</v>
+        <v>77.6666666666667</v>
       </c>
       <c r="J26" s="1" t="n">
         <v>71</v>
@@ -1677,8 +1755,11 @@
       <c r="K26" s="1" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L26" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
@@ -1706,7 +1787,7 @@
       </c>
       <c r="I27" s="1" t="n">
         <f aca="false">AVERAGE(J27:Y27)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>87</v>
@@ -1714,8 +1795,11 @@
       <c r="K27" s="1" t="n">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -1743,7 +1827,7 @@
       </c>
       <c r="I28" s="1" t="n">
         <f aca="false">AVERAGE(J28:Y28)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J28" s="1" t="n">
         <v>66</v>
@@ -1751,8 +1835,11 @@
       <c r="K28" s="1" t="n">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -1773,14 +1860,14 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="n">
         <f aca="false">AVERAGE(J29:Y29)</f>
-        <v>75</v>
+        <v>73.3333333333333</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>81</v>
@@ -1788,8 +1875,11 @@
       <c r="K29" s="1" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -1813,11 +1903,11 @@
         <v>0</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1" t="n">
         <f aca="false">AVERAGE(J30:Y30)</f>
-        <v>75</v>
+        <v>80.3333333333333</v>
       </c>
       <c r="J30" s="1" t="n">
         <v>70</v>
@@ -1825,8 +1915,11 @@
       <c r="K30" s="1" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30" s="0" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -1847,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1" t="n">
         <f aca="false">AVERAGE(J31:Y31)</f>
@@ -1872,7 +1965,7 @@
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">D32&amp;E32</f>
-        <v>pain gamingJG</v>
+        <v>painJG</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>33</v>
@@ -1891,7 +1984,7 @@
       </c>
       <c r="I32" s="1" t="n">
         <f aca="false">AVERAGE(J32:Y32)</f>
-        <v>74.5</v>
+        <v>76</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>68</v>
@@ -1899,8 +1992,11 @@
       <c r="K32" s="1" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L32" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -1924,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="n">
         <f aca="false">AVERAGE(J33:Y33)</f>
@@ -1936,8 +2032,11 @@
       <c r="K33" s="1" t="n">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -1958,14 +2057,14 @@
         <v>0</v>
       </c>
       <c r="G34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I34" s="1" t="n">
         <f aca="false">AVERAGE(J34:Y34)</f>
-        <v>74</v>
+        <v>74.3333333333333</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>80</v>
@@ -1973,8 +2072,11 @@
       <c r="K34" s="1" t="n">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L34" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
@@ -2002,7 +2104,7 @@
       </c>
       <c r="I35" s="1" t="n">
         <f aca="false">AVERAGE(J35:Y35)</f>
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>83</v>
@@ -2010,8 +2112,11 @@
       <c r="K35" s="1" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L35" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -2035,11 +2140,11 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1" t="n">
         <f aca="false">AVERAGE(J36:Y36)</f>
-        <v>73.5</v>
+        <v>77</v>
       </c>
       <c r="J36" s="1" t="n">
         <v>71</v>
@@ -2047,8 +2152,11 @@
       <c r="K36" s="1" t="n">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L36" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -2076,7 +2184,7 @@
       </c>
       <c r="I37" s="1" t="n">
         <f aca="false">AVERAGE(J37:Y37)</f>
-        <v>73.5</v>
+        <v>76.3333333333333</v>
       </c>
       <c r="J37" s="1" t="n">
         <v>82</v>
@@ -2084,8 +2192,11 @@
       <c r="K37" s="1" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L37" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -2106,14 +2217,14 @@
         <v>0</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="1" t="n">
         <f aca="false">AVERAGE(J38:Y38)</f>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J38" s="1" t="n">
         <v>81</v>
@@ -2121,8 +2232,11 @@
       <c r="K38" s="1" t="n">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L38" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
@@ -2150,7 +2264,7 @@
       </c>
       <c r="I39" s="1" t="n">
         <f aca="false">AVERAGE(J39:Y39)</f>
-        <v>71.5</v>
+        <v>69.6666666666667</v>
       </c>
       <c r="J39" s="1" t="n">
         <v>71</v>
@@ -2158,8 +2272,11 @@
       <c r="K39" s="1" t="n">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L39" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
@@ -2187,7 +2304,7 @@
       </c>
       <c r="I40" s="1" t="n">
         <f aca="false">AVERAGE(J40:Y40)</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J40" s="1" t="n">
         <v>72</v>
@@ -2195,8 +2312,11 @@
       <c r="K40" s="1" t="n">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L40" s="0" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -2217,14 +2337,14 @@
         <v>0</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="1" t="n">
         <f aca="false">AVERAGE(J41:Y41)</f>
-        <v>71</v>
+        <v>72.3333333333333</v>
       </c>
       <c r="J41" s="1" t="n">
         <v>68</v>
@@ -2232,8 +2352,11 @@
       <c r="K41" s="1" t="n">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L41" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2269,8 +2392,11 @@
       <c r="K42" s="1" t="n">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L42" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
@@ -2298,7 +2424,7 @@
       </c>
       <c r="I43" s="1" t="n">
         <f aca="false">AVERAGE(J43:Y43)</f>
-        <v>68</v>
+        <v>68.3333333333333</v>
       </c>
       <c r="J43" s="1" t="n">
         <v>62</v>
@@ -2306,8 +2432,11 @@
       <c r="K43" s="1" t="n">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L43" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
@@ -2328,14 +2457,14 @@
         <v>0</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="1" t="n">
         <f aca="false">AVERAGE(J44:Y44)</f>
-        <v>67</v>
+        <v>64.3333333333333</v>
       </c>
       <c r="J44" s="1" t="n">
         <v>72</v>
@@ -2343,8 +2472,11 @@
       <c r="K44" s="1" t="n">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L44" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -2372,7 +2504,7 @@
       </c>
       <c r="I45" s="1" t="n">
         <f aca="false">AVERAGE(J45:Y45)</f>
-        <v>67</v>
+        <v>68.3333333333333</v>
       </c>
       <c r="J45" s="1" t="n">
         <v>65</v>
@@ -2380,8 +2512,11 @@
       <c r="K45" s="1" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L45" s="0" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -2409,7 +2544,7 @@
       </c>
       <c r="I46" s="1" t="n">
         <f aca="false">AVERAGE(J46:Y46)</f>
-        <v>66</v>
+        <v>65.6666666666667</v>
       </c>
       <c r="J46" s="1" t="n">
         <v>68</v>
@@ -2417,8 +2552,11 @@
       <c r="K46" s="1" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L46" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -2446,7 +2584,7 @@
       </c>
       <c r="I47" s="1" t="n">
         <f aca="false">AVERAGE(J47:Y47)</f>
-        <v>66</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="J47" s="1" t="n">
         <v>63</v>
@@ -2454,8 +2592,11 @@
       <c r="K47" s="1" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L47" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -2483,7 +2624,7 @@
       </c>
       <c r="I48" s="1" t="n">
         <f aca="false">AVERAGE(J48:Y48)</f>
-        <v>66</v>
+        <v>67.3333333333333</v>
       </c>
       <c r="J48" s="1" t="n">
         <v>66</v>
@@ -2491,8 +2632,11 @@
       <c r="K48" s="1" t="n">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L48" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
@@ -2513,14 +2657,14 @@
         <v>0</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="1" t="n">
         <f aca="false">AVERAGE(J49:Y49)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J49" s="1" t="n">
         <v>67</v>
@@ -2528,8 +2672,11 @@
       <c r="K49" s="1" t="n">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L49" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -2550,14 +2697,14 @@
         <v>0</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="1" t="n">
         <f aca="false">AVERAGE(J50:Y50)</f>
-        <v>64.5</v>
+        <v>65.3333333333333</v>
       </c>
       <c r="J50" s="1" t="n">
         <v>61</v>
@@ -2565,8 +2712,11 @@
       <c r="K50" s="1" t="n">
         <v>68</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L50" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
@@ -2594,7 +2744,7 @@
       </c>
       <c r="I51" s="1" t="n">
         <f aca="false">AVERAGE(J51:Y51)</f>
-        <v>64</v>
+        <v>71.3333333333333</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>64</v>
@@ -2602,379 +2752,452 @@
       <c r="K51" s="1" t="n">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="L51" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">D52&amp;E52</f>
         <v>intzcoach</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="0" t="n">
+      <c r="F52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="1" t="n">
         <f aca="false">AVERAGE(J52:Y52)</f>
-        <v>79</v>
-      </c>
-      <c r="J52" s="0" t="n">
+        <v>80.3333333333333</v>
+      </c>
+      <c r="J52" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="K52" s="0" t="n">
+      <c r="K52" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="L52" s="0" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">D53&amp;E53</f>
-        <v>pain gamingcoach</v>
-      </c>
-      <c r="D53" s="0" t="s">
+        <v>paincoach</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="0" t="n">
+      <c r="F53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="1" t="n">
         <f aca="false">AVERAGE(J53:Y53)</f>
-        <v>77.5</v>
-      </c>
-      <c r="J53" s="0" t="n">
+        <v>76.6666666666667</v>
+      </c>
+      <c r="J53" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="K53" s="0" t="n">
+      <c r="K53" s="1" t="n">
         <v>85</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="L53" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">D54&amp;E54</f>
         <v>furiacoach</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="0" t="n">
+      <c r="F54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="1" t="n">
         <f aca="false">AVERAGE(J54:Y54)</f>
-        <v>87</v>
-      </c>
-      <c r="J54" s="0" t="n">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="J54" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="K54" s="1" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="L54" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">D55&amp;E55</f>
         <v>loudcoach</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="0" t="n">
+      <c r="F55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="1" t="n">
         <f aca="false">AVERAGE(J55:Y55)</f>
-        <v>69.5</v>
-      </c>
-      <c r="J55" s="0" t="n">
+        <v>74.3333333333333</v>
+      </c>
+      <c r="J55" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="K55" s="0" t="n">
+      <c r="K55" s="1" t="n">
         <v>74</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="L55" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C56" s="1" t="str">
         <f aca="false">D56&amp;E56</f>
         <v>red cannidscoach</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="0" t="n">
+      <c r="F56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="1" t="n">
         <f aca="false">AVERAGE(J56:Y56)</f>
-        <v>78</v>
-      </c>
-      <c r="J56" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J56" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="K56" s="0" t="n">
+      <c r="K56" s="1" t="n">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="L56" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="1" t="str">
         <f aca="false">D57&amp;E57</f>
         <v>fluxocoach</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="0" t="n">
+      <c r="F57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="1" t="n">
         <f aca="false">AVERAGE(J57:Y57)</f>
-        <v>70</v>
-      </c>
-      <c r="J57" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="J57" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57" s="1" t="n">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="L57" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">D58&amp;E58</f>
         <v>los grandescoach</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="0" t="n">
+      <c r="F58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="1" t="n">
         <f aca="false">AVERAGE(J58:Y58)</f>
-        <v>74.5</v>
-      </c>
-      <c r="J58" s="0" t="n">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="J58" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="K58" s="0" t="n">
+      <c r="K58" s="1" t="n">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="L58" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">D59&amp;E59</f>
         <v>keydcoach</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="0" t="n">
+      <c r="F59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="1" t="n">
         <f aca="false">AVERAGE(J59:Y59)</f>
-        <v>71</v>
-      </c>
-      <c r="J59" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="J59" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="K59" s="0" t="n">
+      <c r="K59" s="1" t="n">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="L59" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">D60&amp;E60</f>
         <v>libertycoach</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="0" t="n">
+      <c r="F60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="1" t="n">
         <f aca="false">AVERAGE(J60:Y60)</f>
-        <v>71.5</v>
-      </c>
-      <c r="J60" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="J60" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="K60" s="0" t="n">
+      <c r="K60" s="1" t="n">
         <v>74</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="L60" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C61" s="1" t="str">
         <f aca="false">D61&amp;E61</f>
         <v>kabumcoach</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="0" t="n">
+      <c r="F61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="1" t="n">
         <f aca="false">AVERAGE(J61:Y61)</f>
+        <v>63</v>
+      </c>
+      <c r="J61" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="K61" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="K61" s="0" t="n">
-        <v>65</v>
+      <c r="L61" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f aca="false">D62&amp;E62</f>
+        <v>los grandesJG</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <f aca="false">AVERAGE(J62:Y62)</f>
+        <v>66</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y52"/>
+  <autoFilter ref="A1:Y62">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="pain"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2993,36 +3216,36 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,7 +3254,7 @@
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>76</v>
+        <v>77.6666666666667</v>
       </c>
       <c r="C2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;C$1,jogadores!$C:$I,7,0)</f>
@@ -3039,23 +3262,23 @@
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>90.5</v>
+        <v>87.3333333333333</v>
       </c>
       <c r="F2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>85.5</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="G2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>87</v>
+        <v>86.6666666666667</v>
       </c>
       <c r="H2" s="2" t="n">
         <f aca="false">AVERAGE(B2:G2)</f>
-        <v>84.8333333333333</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,64 +3287,64 @@
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>81.5</v>
+        <v>82.6666666666667</v>
       </c>
       <c r="C3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>84</v>
+        <v>84.3333333333333</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>82.5</v>
+        <v>86.6666666666667</v>
       </c>
       <c r="F3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>82</v>
+        <v>82.6666666666667</v>
       </c>
       <c r="G3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3" s="2" t="n">
         <f aca="false">AVERAGE(B3:G3)</f>
-        <v>81.0833333333333</v>
+        <v>82.5555555555556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B4" s="2" t="e">
         <f aca="false">VLOOKUP($A4&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>84</v>
-      </c>
-      <c r="C4" s="2" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="2" t="e">
         <f aca="false">VLOOKUP($A4&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>74.5</v>
-      </c>
-      <c r="D4" s="2" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="2" t="e">
         <f aca="false">VLOOKUP($A4&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>80</v>
-      </c>
-      <c r="E4" s="2" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="2" t="e">
         <f aca="false">VLOOKUP($A4&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>85.5</v>
-      </c>
-      <c r="F4" s="2" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="2" t="e">
         <f aca="false">VLOOKUP($A4&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>78.5</v>
-      </c>
-      <c r="G4" s="2" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="2" t="e">
         <f aca="false">VLOOKUP($A4&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>77.5</v>
-      </c>
-      <c r="H4" s="2" t="n">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="2" t="e">
         <f aca="false">AVERAGE(B4:G4)</f>
-        <v>80</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,7 +3353,7 @@
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>76.5</v>
+        <v>79.6666666666667</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;C$1,jogadores!$C:$I,7,0)</f>
@@ -3138,23 +3361,23 @@
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>76.5</v>
+        <v>78.3333333333333</v>
       </c>
       <c r="E5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>82</v>
+        <v>79.6666666666667</v>
       </c>
       <c r="F5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>79</v>
+        <v>78.3333333333333</v>
       </c>
       <c r="G5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>79</v>
+        <v>80.3333333333333</v>
       </c>
       <c r="H5" s="2" t="n">
         <f aca="false">AVERAGE(B5:G5)</f>
-        <v>78.8333333333333</v>
+        <v>79.3888888888889</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,31 +3386,31 @@
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>79</v>
+        <v>80.3333333333333</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>73.5</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>79</v>
+        <v>82.6666666666667</v>
       </c>
       <c r="F6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>78.5</v>
+        <v>81</v>
       </c>
       <c r="G6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="n">
         <f aca="false">AVERAGE(B6:G6)</f>
-        <v>75.1666666666667</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3196,7 +3419,7 @@
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;C$1,jogadores!$C:$I,7,0)</f>
@@ -3204,23 +3427,23 @@
       </c>
       <c r="D7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="F7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>74</v>
+        <v>74.3333333333333</v>
       </c>
       <c r="G7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>74.5</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="H7" s="2" t="n">
         <f aca="false">AVERAGE(B7:G7)</f>
-        <v>75</v>
+        <v>73.0833333333333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,15 +3452,15 @@
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>73.5</v>
+        <v>76.3333333333333</v>
       </c>
       <c r="C8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>77.5</v>
+        <v>77.3333333333333</v>
       </c>
       <c r="E8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;E$1,jogadores!$C:$I,7,0)</f>
@@ -3245,15 +3468,15 @@
       </c>
       <c r="F8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>75</v>
+        <v>73.3333333333333</v>
       </c>
       <c r="G8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="n">
         <f aca="false">AVERAGE(B8:G8)</f>
-        <v>74.3333333333333</v>
+        <v>74.8333333333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,31 +3485,31 @@
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>66</v>
+        <v>67.3333333333333</v>
       </c>
       <c r="C9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>64</v>
+        <v>71.3333333333333</v>
       </c>
       <c r="D9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>79</v>
+        <v>82.3333333333333</v>
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>75</v>
+        <v>80.3333333333333</v>
       </c>
       <c r="G9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>69.5</v>
+        <v>74.3333333333333</v>
       </c>
       <c r="H9" s="2" t="n">
         <f aca="false">AVERAGE(B9:G9)</f>
-        <v>71.4166666666667</v>
+        <v>75.9444444444444</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,7 +3518,7 @@
       </c>
       <c r="B10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>71</v>
+        <v>72.3333333333333</v>
       </c>
       <c r="C10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;C$1,jogadores!$C:$I,7,0)</f>
@@ -3303,23 +3526,23 @@
       </c>
       <c r="D10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>67</v>
+        <v>68.3333333333333</v>
       </c>
       <c r="E10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>64.5</v>
+        <v>65.3333333333333</v>
       </c>
       <c r="F10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>68</v>
+        <v>68.3333333333333</v>
       </c>
       <c r="G10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>71.5</v>
+        <v>73</v>
       </c>
       <c r="H10" s="2" t="n">
         <f aca="false">AVERAGE(B10:G10)</f>
-        <v>68.6666666666667</v>
+        <v>69.5555555555556</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,31 +3551,31 @@
       </c>
       <c r="B11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>71.5</v>
+        <v>69.6666666666667</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>67</v>
+        <v>64.3333333333333</v>
       </c>
       <c r="D11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>66</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="E11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>66</v>
+        <v>65.6666666666667</v>
       </c>
       <c r="F11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="2" t="n">
         <f aca="false">AVERAGE(B11:G11)</f>
-        <v>66.75</v>
+        <v>65.5555555555556</v>
       </c>
     </row>
   </sheetData>

--- a/cartinhas.xlsx
+++ b/cartinhas.xlsx
@@ -359,7 +359,7 @@
     <t xml:space="preserve">sickness</t>
   </si>
   <si>
-    <t xml:space="preserve">Enel</t>
+    <t xml:space="preserve">enel</t>
   </si>
   <si>
     <t xml:space="preserve">top</t>
@@ -391,7 +391,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -412,6 +412,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -510,12 +515,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,16 +684,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.09"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -759,7 +775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -785,7 +801,7 @@
       <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="2" t="n">
         <f aca="false">AVERAGE(J2:Y2)</f>
         <v>87.3333333333333</v>
       </c>
@@ -799,7 +815,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -825,7 +841,7 @@
       <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <f aca="false">AVERAGE(J3:Y3)</f>
         <v>85</v>
       </c>
@@ -865,7 +881,7 @@
       <c r="H4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <f aca="false">AVERAGE(J4:Y4)</f>
         <v>86</v>
       </c>
@@ -879,7 +895,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -905,7 +921,7 @@
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="2" t="n">
         <f aca="false">AVERAGE(J5:Y5)</f>
         <v>83.3333333333333</v>
       </c>
@@ -919,7 +935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -945,7 +961,7 @@
       <c r="H6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="2" t="n">
         <f aca="false">AVERAGE(J6:Y6)</f>
         <v>84.3333333333333</v>
       </c>
@@ -959,7 +975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -985,7 +1001,7 @@
       <c r="H7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="2" t="n">
         <f aca="false">AVERAGE(J7:Y7)</f>
         <v>84</v>
       </c>
@@ -1025,7 +1041,7 @@
       <c r="H8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="2" t="n">
         <f aca="false">AVERAGE(J8:Y8)</f>
         <v>82.6666666666667</v>
       </c>
@@ -1039,7 +1055,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1065,7 +1081,7 @@
       <c r="H9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="2" t="n">
         <f aca="false">AVERAGE(J9:Y9)</f>
         <v>86.6666666666667</v>
       </c>
@@ -1079,7 +1095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1105,7 +1121,7 @@
       <c r="H10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="2" t="n">
         <f aca="false">AVERAGE(J10:Y10)</f>
         <v>79.6666666666667</v>
       </c>
@@ -1119,7 +1135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1145,7 +1161,7 @@
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="2" t="n">
         <f aca="false">AVERAGE(J11:Y11)</f>
         <v>82.6666666666667</v>
       </c>
@@ -1159,7 +1175,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1185,7 +1201,7 @@
       <c r="H12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="2" t="n">
         <f aca="false">AVERAGE(J12:Y12)</f>
         <v>81</v>
       </c>
@@ -1199,7 +1215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -1225,7 +1241,7 @@
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="2" t="n">
         <f aca="false">AVERAGE(J13:Y13)</f>
         <v>82.6666666666667</v>
       </c>
@@ -1239,7 +1255,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -1265,7 +1281,7 @@
       <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="2" t="n">
         <f aca="false">AVERAGE(J14:Y14)</f>
         <v>80</v>
       </c>
@@ -1305,7 +1321,7 @@
       <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="2" t="n">
         <f aca="false">AVERAGE(J15:Y15)</f>
         <v>78.6666666666667</v>
       </c>
@@ -1319,7 +1335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1345,7 +1361,7 @@
       <c r="H16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="2" t="n">
         <f aca="false">AVERAGE(J16:Y16)</f>
         <v>82.6666666666667</v>
       </c>
@@ -1359,7 +1375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1385,7 +1401,7 @@
       <c r="H17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="2" t="n">
         <f aca="false">AVERAGE(J17:Y17)</f>
         <v>82.3333333333333</v>
       </c>
@@ -1399,7 +1415,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1425,7 +1441,7 @@
       <c r="H18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="2" t="n">
         <f aca="false">AVERAGE(J18:Y18)</f>
         <v>80.3333333333333</v>
       </c>
@@ -1439,7 +1455,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1465,7 +1481,7 @@
       <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="2" t="n">
         <f aca="false">AVERAGE(J19:Y19)</f>
         <v>78.3333333333333</v>
       </c>
@@ -1479,7 +1495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1505,7 +1521,7 @@
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="2" t="n">
         <f aca="false">AVERAGE(J20:Y20)</f>
         <v>79</v>
       </c>
@@ -1519,7 +1535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1545,7 +1561,7 @@
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="2" t="n">
         <f aca="false">AVERAGE(J21:Y21)</f>
         <v>81</v>
       </c>
@@ -1585,7 +1601,7 @@
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="2" t="n">
         <f aca="false">AVERAGE(J22:Y22)</f>
         <v>78.3333333333333</v>
       </c>
@@ -1599,7 +1615,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1625,7 +1641,7 @@
       <c r="H23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="2" t="n">
         <f aca="false">AVERAGE(J23:Y23)</f>
         <v>77.3333333333333</v>
       </c>
@@ -1639,7 +1655,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1665,7 +1681,7 @@
       <c r="H24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="I24" s="2" t="n">
         <f aca="false">AVERAGE(J24:Y24)</f>
         <v>78.3333333333333</v>
       </c>
@@ -1679,7 +1695,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1705,7 +1721,7 @@
       <c r="H25" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="2" t="n">
         <f aca="false">AVERAGE(J25:Y25)</f>
         <v>79.6666666666667</v>
       </c>
@@ -1719,7 +1735,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -1745,7 +1761,7 @@
       <c r="H26" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="I26" s="2" t="n">
         <f aca="false">AVERAGE(J26:Y26)</f>
         <v>77.6666666666667</v>
       </c>
@@ -1759,7 +1775,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
@@ -1785,7 +1801,7 @@
       <c r="H27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="1" t="n">
+      <c r="I27" s="2" t="n">
         <f aca="false">AVERAGE(J27:Y27)</f>
         <v>76</v>
       </c>
@@ -1799,7 +1815,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -1825,7 +1841,7 @@
       <c r="H28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="1" t="n">
+      <c r="I28" s="2" t="n">
         <f aca="false">AVERAGE(J28:Y28)</f>
         <v>80</v>
       </c>
@@ -1839,7 +1855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -1865,7 +1881,7 @@
       <c r="H29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" s="2" t="n">
         <f aca="false">AVERAGE(J29:Y29)</f>
         <v>73.3333333333333</v>
       </c>
@@ -1879,7 +1895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -1905,7 +1921,7 @@
       <c r="H30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="1" t="n">
+      <c r="I30" s="2" t="n">
         <f aca="false">AVERAGE(J30:Y30)</f>
         <v>80.3333333333333</v>
       </c>
@@ -1919,7 +1935,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -1945,7 +1961,7 @@
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="I31" s="2" t="n">
         <f aca="false">AVERAGE(J31:Y31)</f>
         <v>74.5</v>
       </c>
@@ -1982,7 +1998,7 @@
       <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="1" t="n">
+      <c r="I32" s="2" t="n">
         <f aca="false">AVERAGE(J32:Y32)</f>
         <v>76</v>
       </c>
@@ -1996,7 +2012,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -2022,7 +2038,7 @@
       <c r="H33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="2" t="n">
         <f aca="false">AVERAGE(J33:Y33)</f>
         <v>74</v>
       </c>
@@ -2036,7 +2052,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -2062,7 +2078,7 @@
       <c r="H34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="1" t="n">
+      <c r="I34" s="2" t="n">
         <f aca="false">AVERAGE(J34:Y34)</f>
         <v>74.3333333333333</v>
       </c>
@@ -2076,7 +2092,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
@@ -2102,7 +2118,7 @@
       <c r="H35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="1" t="n">
+      <c r="I35" s="2" t="n">
         <f aca="false">AVERAGE(J35:Y35)</f>
         <v>74</v>
       </c>
@@ -2116,7 +2132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -2142,7 +2158,7 @@
       <c r="H36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I36" s="1" t="n">
+      <c r="I36" s="2" t="n">
         <f aca="false">AVERAGE(J36:Y36)</f>
         <v>77</v>
       </c>
@@ -2156,7 +2172,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -2182,7 +2198,7 @@
       <c r="H37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I37" s="1" t="n">
+      <c r="I37" s="2" t="n">
         <f aca="false">AVERAGE(J37:Y37)</f>
         <v>76.3333333333333</v>
       </c>
@@ -2196,7 +2212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -2222,7 +2238,7 @@
       <c r="H38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="1" t="n">
+      <c r="I38" s="2" t="n">
         <f aca="false">AVERAGE(J38:Y38)</f>
         <v>68</v>
       </c>
@@ -2236,7 +2252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
@@ -2262,7 +2278,7 @@
       <c r="H39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="1" t="n">
+      <c r="I39" s="2" t="n">
         <f aca="false">AVERAGE(J39:Y39)</f>
         <v>69.6666666666667</v>
       </c>
@@ -2276,7 +2292,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
@@ -2302,7 +2318,7 @@
       <c r="H40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I40" s="1" t="n">
+      <c r="I40" s="2" t="n">
         <f aca="false">AVERAGE(J40:Y40)</f>
         <v>77</v>
       </c>
@@ -2316,7 +2332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -2342,7 +2358,7 @@
       <c r="H41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I41" s="1" t="n">
+      <c r="I41" s="2" t="n">
         <f aca="false">AVERAGE(J41:Y41)</f>
         <v>72.3333333333333</v>
       </c>
@@ -2356,7 +2372,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2382,7 +2398,7 @@
       <c r="H42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I42" s="1" t="n">
+      <c r="I42" s="2" t="n">
         <f aca="false">AVERAGE(J42:Y42)</f>
         <v>70</v>
       </c>
@@ -2396,7 +2412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
@@ -2422,7 +2438,7 @@
       <c r="H43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I43" s="1" t="n">
+      <c r="I43" s="2" t="n">
         <f aca="false">AVERAGE(J43:Y43)</f>
         <v>68.3333333333333</v>
       </c>
@@ -2436,7 +2452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
@@ -2462,7 +2478,7 @@
       <c r="H44" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I44" s="1" t="n">
+      <c r="I44" s="2" t="n">
         <f aca="false">AVERAGE(J44:Y44)</f>
         <v>64.3333333333333</v>
       </c>
@@ -2476,7 +2492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -2502,7 +2518,7 @@
       <c r="H45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="1" t="n">
+      <c r="I45" s="2" t="n">
         <f aca="false">AVERAGE(J45:Y45)</f>
         <v>68.3333333333333</v>
       </c>
@@ -2516,7 +2532,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -2542,7 +2558,7 @@
       <c r="H46" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="1" t="n">
+      <c r="I46" s="2" t="n">
         <f aca="false">AVERAGE(J46:Y46)</f>
         <v>65.6666666666667</v>
       </c>
@@ -2556,7 +2572,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -2582,7 +2598,7 @@
       <c r="H47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I47" s="1" t="n">
+      <c r="I47" s="2" t="n">
         <f aca="false">AVERAGE(J47:Y47)</f>
         <v>66.6666666666667</v>
       </c>
@@ -2596,7 +2612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -2622,7 +2638,7 @@
       <c r="H48" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I48" s="1" t="n">
+      <c r="I48" s="2" t="n">
         <f aca="false">AVERAGE(J48:Y48)</f>
         <v>67.3333333333333</v>
       </c>
@@ -2636,7 +2652,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
@@ -2662,7 +2678,7 @@
       <c r="H49" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I49" s="1" t="n">
+      <c r="I49" s="2" t="n">
         <f aca="false">AVERAGE(J49:Y49)</f>
         <v>64</v>
       </c>
@@ -2676,7 +2692,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -2702,7 +2718,7 @@
       <c r="H50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I50" s="1" t="n">
+      <c r="I50" s="2" t="n">
         <f aca="false">AVERAGE(J50:Y50)</f>
         <v>65.3333333333333</v>
       </c>
@@ -2716,7 +2732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
@@ -2742,7 +2758,7 @@
       <c r="H51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I51" s="1" t="n">
+      <c r="I51" s="2" t="n">
         <f aca="false">AVERAGE(J51:Y51)</f>
         <v>71.3333333333333</v>
       </c>
@@ -2756,7 +2772,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
@@ -2782,7 +2798,7 @@
       <c r="H52" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I52" s="1" t="n">
+      <c r="I52" s="2" t="n">
         <f aca="false">AVERAGE(J52:Y52)</f>
         <v>80.3333333333333</v>
       </c>
@@ -2822,7 +2838,7 @@
       <c r="H53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I53" s="1" t="n">
+      <c r="I53" s="2" t="n">
         <f aca="false">AVERAGE(J53:Y53)</f>
         <v>76.6666666666667</v>
       </c>
@@ -2836,7 +2852,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>103</v>
       </c>
@@ -2862,7 +2878,7 @@
       <c r="H54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I54" s="1" t="n">
+      <c r="I54" s="2" t="n">
         <f aca="false">AVERAGE(J54:Y54)</f>
         <v>86.6666666666667</v>
       </c>
@@ -2876,7 +2892,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
@@ -2902,7 +2918,7 @@
       <c r="H55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I55" s="1" t="n">
+      <c r="I55" s="2" t="n">
         <f aca="false">AVERAGE(J55:Y55)</f>
         <v>74.3333333333333</v>
       </c>
@@ -2916,7 +2932,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>105</v>
       </c>
@@ -2942,7 +2958,7 @@
       <c r="H56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I56" s="1" t="n">
+      <c r="I56" s="2" t="n">
         <f aca="false">AVERAGE(J56:Y56)</f>
         <v>80</v>
       </c>
@@ -2956,7 +2972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>106</v>
       </c>
@@ -2982,7 +2998,7 @@
       <c r="H57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I57" s="1" t="n">
+      <c r="I57" s="2" t="n">
         <f aca="false">AVERAGE(J57:Y57)</f>
         <v>76</v>
       </c>
@@ -2996,7 +3012,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>107</v>
       </c>
@@ -3022,7 +3038,7 @@
       <c r="H58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I58" s="1" t="n">
+      <c r="I58" s="2" t="n">
         <f aca="false">AVERAGE(J58:Y58)</f>
         <v>66.6666666666667</v>
       </c>
@@ -3036,7 +3052,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>108</v>
       </c>
@@ -3062,7 +3078,7 @@
       <c r="H59" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I59" s="1" t="n">
+      <c r="I59" s="2" t="n">
         <f aca="false">AVERAGE(J59:Y59)</f>
         <v>72</v>
       </c>
@@ -3076,7 +3092,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>109</v>
       </c>
@@ -3102,7 +3118,7 @@
       <c r="H60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I60" s="1" t="n">
+      <c r="I60" s="2" t="n">
         <f aca="false">AVERAGE(J60:Y60)</f>
         <v>73</v>
       </c>
@@ -3116,7 +3132,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>110</v>
       </c>
@@ -3142,7 +3158,7 @@
       <c r="H61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I61" s="1" t="n">
+      <c r="I61" s="2" t="n">
         <f aca="false">AVERAGE(J61:Y61)</f>
         <v>63</v>
       </c>
@@ -3156,7 +3172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>111</v>
       </c>
@@ -3182,22 +3198,17 @@
       <c r="H62" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I62" s="1" t="n">
+      <c r="I62" s="2" t="n">
         <f aca="false">AVERAGE(J62:Y62)</f>
         <v>66</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>66</v>
       </c>
+      <c r="N62" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y62">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="pain"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y62"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3220,7 +3231,7 @@
       <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.59"/>
   </cols>
@@ -3252,31 +3263,31 @@
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4" t="n">
         <f aca="false">VLOOKUP($A2&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>77.6666666666667</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="4" t="n">
         <f aca="false">VLOOKUP($A2&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>84</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="4" t="n">
         <f aca="false">VLOOKUP($A2&amp;D$1,jogadores!$C:$I,7,0)</f>
         <v>85</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="4" t="n">
         <f aca="false">VLOOKUP($A2&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>87.3333333333333</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="4" t="n">
         <f aca="false">VLOOKUP($A2&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>83.3333333333333</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="4" t="n">
         <f aca="false">VLOOKUP($A2&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>86.6666666666667</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="4" t="n">
         <f aca="false">AVERAGE(B2:G2)</f>
         <v>84</v>
       </c>
@@ -3285,31 +3296,31 @@
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <f aca="false">VLOOKUP($A3&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>82.6666666666667</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="4" t="n">
         <f aca="false">VLOOKUP($A3&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>84.3333333333333</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="4" t="n">
         <f aca="false">VLOOKUP($A3&amp;D$1,jogadores!$C:$I,7,0)</f>
         <v>79</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="4" t="n">
         <f aca="false">VLOOKUP($A3&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>86.6666666666667</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="4" t="n">
         <f aca="false">VLOOKUP($A3&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>82.6666666666667</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="4" t="n">
         <f aca="false">VLOOKUP($A3&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>80</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="4" t="n">
         <f aca="false">AVERAGE(B3:G3)</f>
         <v>82.5555555555556</v>
       </c>
@@ -3318,31 +3329,31 @@
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="2" t="e">
+      <c r="B4" s="4" t="e">
         <f aca="false">VLOOKUP($A4&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C4" s="2" t="e">
+      <c r="C4" s="4" t="e">
         <f aca="false">VLOOKUP($A4&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D4" s="2" t="e">
+      <c r="D4" s="4" t="e">
         <f aca="false">VLOOKUP($A4&amp;D$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E4" s="2" t="e">
+      <c r="E4" s="4" t="e">
         <f aca="false">VLOOKUP($A4&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F4" s="2" t="e">
+      <c r="F4" s="4" t="e">
         <f aca="false">VLOOKUP($A4&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G4" s="2" t="e">
+      <c r="G4" s="4" t="e">
         <f aca="false">VLOOKUP($A4&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H4" s="2" t="e">
+      <c r="H4" s="4" t="e">
         <f aca="false">AVERAGE(B4:G4)</f>
         <v>#N/A</v>
       </c>
@@ -3351,31 +3362,31 @@
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4" t="n">
         <f aca="false">VLOOKUP($A5&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>79.6666666666667</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="4" t="n">
         <f aca="false">VLOOKUP($A5&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>80</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4" t="n">
         <f aca="false">VLOOKUP($A5&amp;D$1,jogadores!$C:$I,7,0)</f>
         <v>78.3333333333333</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4" t="n">
         <f aca="false">VLOOKUP($A5&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>79.6666666666667</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="4" t="n">
         <f aca="false">VLOOKUP($A5&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>78.3333333333333</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="4" t="n">
         <f aca="false">VLOOKUP($A5&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>80.3333333333333</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="4" t="n">
         <f aca="false">AVERAGE(B5:G5)</f>
         <v>79.3888888888889</v>
       </c>
@@ -3384,31 +3395,31 @@
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4" t="n">
         <f aca="false">VLOOKUP($A6&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>77</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="4" t="n">
         <f aca="false">VLOOKUP($A6&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>80.3333333333333</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="4" t="n">
         <f aca="false">VLOOKUP($A6&amp;D$1,jogadores!$C:$I,7,0)</f>
         <v>77</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4" t="n">
         <f aca="false">VLOOKUP($A6&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>82.6666666666667</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="4" t="n">
         <f aca="false">VLOOKUP($A6&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>81</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="4" t="n">
         <f aca="false">VLOOKUP($A6&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>76</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="4" t="n">
         <f aca="false">AVERAGE(B6:G6)</f>
         <v>79</v>
       </c>
@@ -3417,31 +3428,31 @@
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="4" t="n">
         <f aca="false">VLOOKUP($A7&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>68</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="4" t="n">
         <f aca="false">VLOOKUP($A7&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>74.5</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="4" t="n">
         <f aca="false">VLOOKUP($A7&amp;D$1,jogadores!$C:$I,7,0)</f>
         <v>74</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="4" t="n">
         <f aca="false">VLOOKUP($A7&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>81</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="4" t="n">
         <f aca="false">VLOOKUP($A7&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>74.3333333333333</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="4" t="n">
         <f aca="false">VLOOKUP($A7&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>66.6666666666667</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="4" t="n">
         <f aca="false">AVERAGE(B7:G7)</f>
         <v>73.0833333333333</v>
       </c>
@@ -3450,31 +3461,31 @@
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="4" t="n">
         <f aca="false">VLOOKUP($A8&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>76.3333333333333</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="4" t="n">
         <f aca="false">VLOOKUP($A8&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>76</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="4" t="n">
         <f aca="false">VLOOKUP($A8&amp;D$1,jogadores!$C:$I,7,0)</f>
         <v>77.3333333333333</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="4" t="n">
         <f aca="false">VLOOKUP($A8&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>74</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="4" t="n">
         <f aca="false">VLOOKUP($A8&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>73.3333333333333</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="4" t="n">
         <f aca="false">VLOOKUP($A8&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>72</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="4" t="n">
         <f aca="false">AVERAGE(B8:G8)</f>
         <v>74.8333333333333</v>
       </c>
@@ -3483,31 +3494,31 @@
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="4" t="n">
         <f aca="false">VLOOKUP($A9&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>67.3333333333333</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="4" t="n">
         <f aca="false">VLOOKUP($A9&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>71.3333333333333</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="4" t="n">
         <f aca="false">VLOOKUP($A9&amp;D$1,jogadores!$C:$I,7,0)</f>
         <v>80</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="4" t="n">
         <f aca="false">VLOOKUP($A9&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>82.3333333333333</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="4" t="n">
         <f aca="false">VLOOKUP($A9&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>80.3333333333333</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="4" t="n">
         <f aca="false">VLOOKUP($A9&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>74.3333333333333</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="4" t="n">
         <f aca="false">AVERAGE(B9:G9)</f>
         <v>75.9444444444444</v>
       </c>
@@ -3516,31 +3527,31 @@
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="4" t="n">
         <f aca="false">VLOOKUP($A10&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>72.3333333333333</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="4" t="n">
         <f aca="false">VLOOKUP($A10&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>70</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="4" t="n">
         <f aca="false">VLOOKUP($A10&amp;D$1,jogadores!$C:$I,7,0)</f>
         <v>68.3333333333333</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="4" t="n">
         <f aca="false">VLOOKUP($A10&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>65.3333333333333</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="4" t="n">
         <f aca="false">VLOOKUP($A10&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>68.3333333333333</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="4" t="n">
         <f aca="false">VLOOKUP($A10&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>73</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="4" t="n">
         <f aca="false">AVERAGE(B10:G10)</f>
         <v>69.5555555555556</v>
       </c>
@@ -3549,31 +3560,31 @@
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="4" t="n">
         <f aca="false">VLOOKUP($A11&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>69.6666666666667</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="4" t="n">
         <f aca="false">VLOOKUP($A11&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>64.3333333333333</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="4" t="n">
         <f aca="false">VLOOKUP($A11&amp;D$1,jogadores!$C:$I,7,0)</f>
         <v>66.6666666666667</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="4" t="n">
         <f aca="false">VLOOKUP($A11&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>65.6666666666667</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="4" t="n">
         <f aca="false">VLOOKUP($A11&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>64</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="4" t="n">
         <f aca="false">VLOOKUP($A11&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>63</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="4" t="n">
         <f aca="false">AVERAGE(B11:G11)</f>
         <v>65.5555555555556</v>
       </c>

--- a/cartinhas.xlsx
+++ b/cartinhas.xlsx
@@ -12,7 +12,7 @@
     <sheet name="times" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">jogadores!$A$1:$Y$62</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">jogadores!$A$1:$Y$64</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="120">
   <si>
     <t xml:space="preserve">nick</t>
   </si>
@@ -44,12 +44,12 @@
     <t xml:space="preserve">craque da semana</t>
   </si>
   <si>
+    <t xml:space="preserve">mvp</t>
+  </si>
+  <si>
     <t xml:space="preserve">bragre</t>
   </si>
   <si>
-    <t xml:space="preserve">mvp</t>
-  </si>
-  <si>
     <t xml:space="preserve">media</t>
   </si>
   <si>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">intz</t>
   </si>
   <si>
-    <t xml:space="preserve">frosty</t>
+    <t xml:space="preserve">frostyy</t>
   </si>
   <si>
     <t xml:space="preserve">netuno</t>
@@ -359,7 +359,10 @@
     <t xml:space="preserve">sickness</t>
   </si>
   <si>
-    <t xml:space="preserve">enel</t>
+    <t xml:space="preserve">enel1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidan</t>
   </si>
   <si>
     <t xml:space="preserve">top</t>
@@ -391,7 +394,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -412,11 +415,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -515,7 +513,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -525,10 +523,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -687,15 +681,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F64" activeCellId="0" sqref="F64:H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,14 +790,14 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="n">
         <f aca="false">AVERAGE(J2:Y2)</f>
-        <v>87.3333333333333</v>
+        <v>83.5</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>88</v>
@@ -813,6 +807,9 @@
       </c>
       <c r="L2" s="0" t="n">
         <v>81</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,14 +833,14 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
         <f aca="false">AVERAGE(J3:Y3)</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>80</v>
@@ -853,6 +850,9 @@
       </c>
       <c r="L3" s="0" t="n">
         <v>83</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,14 +876,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <f aca="false">AVERAGE(J4:Y4)</f>
-        <v>86</v>
+        <v>86.75</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>81</v>
@@ -893,6 +893,9 @@
       </c>
       <c r="L4" s="0" t="n">
         <v>87</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -916,14 +919,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
         <f aca="false">AVERAGE(J5:Y5)</f>
-        <v>83.3333333333333</v>
+        <v>81</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>81</v>
@@ -933,6 +936,9 @@
       </c>
       <c r="L5" s="0" t="n">
         <v>79</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,14 +962,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="I6" s="2" t="n">
         <f aca="false">AVERAGE(J6:Y6)</f>
-        <v>84.3333333333333</v>
+        <v>86.25</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>88</v>
@@ -973,6 +979,9 @@
       </c>
       <c r="L6" s="0" t="n">
         <v>85</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -996,14 +1005,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="n">
         <f aca="false">AVERAGE(J7:Y7)</f>
-        <v>84</v>
+        <v>79.5</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>78</v>
@@ -1013,6 +1022,9 @@
       </c>
       <c r="L7" s="0" t="n">
         <v>84</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,14 +1048,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <f aca="false">AVERAGE(J8:Y8)</f>
-        <v>82.6666666666667</v>
+        <v>85</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>76</v>
@@ -1053,6 +1065,9 @@
       </c>
       <c r="L8" s="0" t="n">
         <v>80</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,14 +1091,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2" t="n">
         <f aca="false">AVERAGE(J9:Y9)</f>
-        <v>86.6666666666667</v>
+        <v>87</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>81</v>
@@ -1093,6 +1108,9 @@
       </c>
       <c r="L9" s="0" t="n">
         <v>95</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,14 +1134,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
         <f aca="false">AVERAGE(J10:Y10)</f>
-        <v>79.6666666666667</v>
+        <v>78.75</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>73</v>
@@ -1133,6 +1151,9 @@
       </c>
       <c r="L10" s="0" t="n">
         <v>75</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,7 +1184,7 @@
       </c>
       <c r="I11" s="2" t="n">
         <f aca="false">AVERAGE(J11:Y11)</f>
-        <v>82.6666666666667</v>
+        <v>82.25</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>83</v>
@@ -1173,6 +1194,9 @@
       </c>
       <c r="L11" s="0" t="n">
         <v>84</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1196,14 +1220,14 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2" t="n">
         <f aca="false">AVERAGE(J12:Y12)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>91</v>
@@ -1213,6 +1237,9 @@
       </c>
       <c r="L12" s="0" t="n">
         <v>80</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,14 +1263,14 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="n">
         <f aca="false">AVERAGE(J13:Y13)</f>
-        <v>82.6666666666667</v>
+        <v>84.5</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>85</v>
@@ -1253,6 +1280,9 @@
       </c>
       <c r="L13" s="0" t="n">
         <v>85</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,7 +1313,7 @@
       </c>
       <c r="I14" s="2" t="n">
         <f aca="false">AVERAGE(J14:Y14)</f>
-        <v>80</v>
+        <v>81.5</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>69</v>
@@ -1293,6 +1323,9 @@
       </c>
       <c r="L14" s="0" t="n">
         <v>80</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,14 +1349,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
         <f aca="false">AVERAGE(J15:Y15)</f>
-        <v>78.6666666666667</v>
+        <v>80.25</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>73</v>
@@ -1333,6 +1366,9 @@
       </c>
       <c r="L15" s="0" t="n">
         <v>76</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,14 +1392,14 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="I16" s="2" t="n">
         <f aca="false">AVERAGE(J16:Y16)</f>
-        <v>82.6666666666667</v>
+        <v>82</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>80</v>
@@ -1373,6 +1409,9 @@
       </c>
       <c r="L16" s="0" t="n">
         <v>90</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,14 +1435,14 @@
         <v>0</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
         <f aca="false">AVERAGE(J17:Y17)</f>
-        <v>82.3333333333333</v>
+        <v>84.25</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>75</v>
@@ -1413,6 +1452,9 @@
       </c>
       <c r="L17" s="0" t="n">
         <v>89</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,7 +1485,7 @@
       </c>
       <c r="I18" s="2" t="n">
         <f aca="false">AVERAGE(J18:Y18)</f>
-        <v>80.3333333333333</v>
+        <v>80.25</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>78</v>
@@ -1453,6 +1495,9 @@
       </c>
       <c r="L18" s="0" t="n">
         <v>83</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,14 +1521,14 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
         <f aca="false">AVERAGE(J19:Y19)</f>
-        <v>78.3333333333333</v>
+        <v>79.25</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>70</v>
@@ -1493,6 +1538,9 @@
       </c>
       <c r="L19" s="0" t="n">
         <v>77</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,7 +1571,7 @@
       </c>
       <c r="I20" s="2" t="n">
         <f aca="false">AVERAGE(J20:Y20)</f>
-        <v>79</v>
+        <v>79.25</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>80</v>
@@ -1532,6 +1580,9 @@
         <v>77</v>
       </c>
       <c r="L20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M20" s="0" t="n">
         <v>80</v>
       </c>
     </row>
@@ -1563,7 +1614,7 @@
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">AVERAGE(J21:Y21)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>82</v>
@@ -1573,6 +1624,9 @@
       </c>
       <c r="L21" s="0" t="n">
         <v>86</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,7 +1657,7 @@
       </c>
       <c r="I22" s="2" t="n">
         <f aca="false">AVERAGE(J22:Y22)</f>
-        <v>78.3333333333333</v>
+        <v>79.75</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>72</v>
@@ -1613,6 +1667,9 @@
       </c>
       <c r="L22" s="0" t="n">
         <v>78</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,14 +1693,14 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
         <f aca="false">AVERAGE(J23:Y23)</f>
-        <v>77.3333333333333</v>
+        <v>79.5</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>88</v>
@@ -1653,6 +1710,9 @@
       </c>
       <c r="L23" s="0" t="n">
         <v>77</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,11 +1739,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
         <f aca="false">AVERAGE(J24:Y24)</f>
-        <v>78.3333333333333</v>
+        <v>78</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>72</v>
@@ -1693,6 +1753,9 @@
       </c>
       <c r="L24" s="0" t="n">
         <v>82</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,14 +1779,14 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
         <f aca="false">AVERAGE(J25:Y25)</f>
-        <v>79.6666666666667</v>
+        <v>81</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>67</v>
@@ -1733,6 +1796,9 @@
       </c>
       <c r="L25" s="0" t="n">
         <v>86</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,7 +1829,7 @@
       </c>
       <c r="I26" s="2" t="n">
         <f aca="false">AVERAGE(J26:Y26)</f>
-        <v>77.6666666666667</v>
+        <v>77</v>
       </c>
       <c r="J26" s="1" t="n">
         <v>71</v>
@@ -1773,6 +1839,9 @@
       </c>
       <c r="L26" s="0" t="n">
         <v>81</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,14 +1865,14 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
         <f aca="false">AVERAGE(J27:Y27)</f>
-        <v>76</v>
+        <v>79.25</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>87</v>
@@ -1813,6 +1882,9 @@
       </c>
       <c r="L27" s="0" t="n">
         <v>78</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,17 +1905,17 @@
         <v>30</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="n">
         <f aca="false">AVERAGE(J28:Y28)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J28" s="1" t="n">
         <v>66</v>
@@ -1853,6 +1925,9 @@
       </c>
       <c r="L28" s="0" t="n">
         <v>90</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,14 +1951,14 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I29" s="2" t="n">
         <f aca="false">AVERAGE(J29:Y29)</f>
-        <v>73.3333333333333</v>
+        <v>75.75</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>81</v>
@@ -1893,6 +1968,9 @@
       </c>
       <c r="L29" s="0" t="n">
         <v>70</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,14 +1994,14 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
         <f aca="false">AVERAGE(J30:Y30)</f>
-        <v>80.3333333333333</v>
+        <v>83.75</v>
       </c>
       <c r="J30" s="1" t="n">
         <v>70</v>
@@ -1933,6 +2011,9 @@
       </c>
       <c r="L30" s="0" t="n">
         <v>91</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
         <f aca="false">AVERAGE(J31:Y31)</f>
@@ -1993,14 +2074,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
         <f aca="false">AVERAGE(J32:Y32)</f>
-        <v>76</v>
+        <v>78.75</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>68</v>
@@ -2010,6 +2091,9 @@
       </c>
       <c r="L32" s="0" t="n">
         <v>79</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,14 +2117,14 @@
         <v>0</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
         <f aca="false">AVERAGE(J33:Y33)</f>
-        <v>74</v>
+        <v>78.25</v>
       </c>
       <c r="J33" s="1" t="n">
         <v>85</v>
@@ -2050,6 +2134,9 @@
       </c>
       <c r="L33" s="0" t="n">
         <v>74</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,14 +2160,14 @@
         <v>0</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
         <f aca="false">AVERAGE(J34:Y34)</f>
-        <v>74.3333333333333</v>
+        <v>74</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>80</v>
@@ -2090,6 +2177,9 @@
       </c>
       <c r="L34" s="0" t="n">
         <v>75</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,7 +2210,7 @@
       </c>
       <c r="I35" s="2" t="n">
         <f aca="false">AVERAGE(J35:Y35)</f>
-        <v>74</v>
+        <v>72.75</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>83</v>
@@ -2130,6 +2220,9 @@
       </c>
       <c r="L35" s="0" t="n">
         <v>75</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,14 +2246,14 @@
         <v>0</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
         <f aca="false">AVERAGE(J36:Y36)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J36" s="1" t="n">
         <v>71</v>
@@ -2170,6 +2263,9 @@
       </c>
       <c r="L36" s="0" t="n">
         <v>84</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,14 +2289,14 @@
         <v>0</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
         <f aca="false">AVERAGE(J37:Y37)</f>
-        <v>76.3333333333333</v>
+        <v>78.5</v>
       </c>
       <c r="J37" s="1" t="n">
         <v>82</v>
@@ -2210,6 +2306,9 @@
       </c>
       <c r="L37" s="0" t="n">
         <v>82</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
         <f aca="false">AVERAGE(J38:Y38)</f>
@@ -2320,7 +2419,7 @@
       </c>
       <c r="I40" s="2" t="n">
         <f aca="false">AVERAGE(J40:Y40)</f>
-        <v>77</v>
+        <v>76.75</v>
       </c>
       <c r="J40" s="1" t="n">
         <v>72</v>
@@ -2330,6 +2429,9 @@
       </c>
       <c r="L40" s="0" t="n">
         <v>89</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,14 +2455,14 @@
         <v>0</v>
       </c>
       <c r="G41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
         <f aca="false">AVERAGE(J41:Y41)</f>
-        <v>72.3333333333333</v>
+        <v>70.5</v>
       </c>
       <c r="J41" s="1" t="n">
         <v>68</v>
@@ -2370,6 +2472,9 @@
       </c>
       <c r="L41" s="0" t="n">
         <v>75</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2393,14 +2498,14 @@
         <v>0</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
         <f aca="false">AVERAGE(J42:Y42)</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J42" s="1" t="n">
         <v>64</v>
@@ -2410,6 +2515,9 @@
       </c>
       <c r="L42" s="0" t="n">
         <v>70</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,7 +2548,7 @@
       </c>
       <c r="I43" s="2" t="n">
         <f aca="false">AVERAGE(J43:Y43)</f>
-        <v>68.3333333333333</v>
+        <v>66</v>
       </c>
       <c r="J43" s="1" t="n">
         <v>62</v>
@@ -2450,6 +2558,9 @@
       </c>
       <c r="L43" s="0" t="n">
         <v>69</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,14 +2584,14 @@
         <v>0</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44" s="2" t="n">
         <f aca="false">AVERAGE(J44:Y44)</f>
-        <v>64.3333333333333</v>
+        <v>61.5</v>
       </c>
       <c r="J44" s="1" t="n">
         <v>72</v>
@@ -2490,6 +2601,9 @@
       </c>
       <c r="L44" s="0" t="n">
         <v>59</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,14 +2627,14 @@
         <v>0</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45" s="2" t="n">
         <f aca="false">AVERAGE(J45:Y45)</f>
-        <v>68.3333333333333</v>
+        <v>65.75</v>
       </c>
       <c r="J45" s="1" t="n">
         <v>65</v>
@@ -2530,6 +2644,9 @@
       </c>
       <c r="L45" s="0" t="n">
         <v>71</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,7 +2677,7 @@
       </c>
       <c r="I46" s="2" t="n">
         <f aca="false">AVERAGE(J46:Y46)</f>
-        <v>65.6666666666667</v>
+        <v>63.75</v>
       </c>
       <c r="J46" s="1" t="n">
         <v>68</v>
@@ -2570,6 +2687,9 @@
       </c>
       <c r="L46" s="0" t="n">
         <v>65</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,14 +2713,14 @@
         <v>0</v>
       </c>
       <c r="G47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
         <f aca="false">AVERAGE(J47:Y47)</f>
-        <v>66.6666666666667</v>
+        <v>67.75</v>
       </c>
       <c r="J47" s="1" t="n">
         <v>63</v>
@@ -2610,6 +2730,9 @@
       </c>
       <c r="L47" s="0" t="n">
         <v>68</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,14 +2756,14 @@
         <v>0</v>
       </c>
       <c r="G48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
         <f aca="false">AVERAGE(J48:Y48)</f>
-        <v>67.3333333333333</v>
+        <v>71.25</v>
       </c>
       <c r="J48" s="1" t="n">
         <v>66</v>
@@ -2650,6 +2773,9 @@
       </c>
       <c r="L48" s="0" t="n">
         <v>70</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,14 +2799,14 @@
         <v>0</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" s="2" t="n">
         <f aca="false">AVERAGE(J49:Y49)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J49" s="1" t="n">
         <v>67</v>
@@ -2690,6 +2816,9 @@
       </c>
       <c r="L49" s="0" t="n">
         <v>62</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,14 +2842,14 @@
         <v>0</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50" s="2" t="n">
         <f aca="false">AVERAGE(J50:Y50)</f>
-        <v>65.3333333333333</v>
+        <v>64</v>
       </c>
       <c r="J50" s="1" t="n">
         <v>61</v>
@@ -2730,6 +2859,9 @@
       </c>
       <c r="L50" s="0" t="n">
         <v>67</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,11 +2888,11 @@
         <v>1</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="2" t="n">
         <f aca="false">AVERAGE(J51:Y51)</f>
-        <v>71.3333333333333</v>
+        <v>74.75</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>64</v>
@@ -2770,6 +2902,9 @@
       </c>
       <c r="L51" s="0" t="n">
         <v>86</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,7 +2975,7 @@
       </c>
       <c r="I53" s="2" t="n">
         <f aca="false">AVERAGE(J53:Y53)</f>
-        <v>76.6666666666667</v>
+        <v>79.25</v>
       </c>
       <c r="J53" s="1" t="n">
         <v>70</v>
@@ -2850,6 +2985,9 @@
       </c>
       <c r="L53" s="0" t="n">
         <v>75</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,7 +3018,7 @@
       </c>
       <c r="I54" s="2" t="n">
         <f aca="false">AVERAGE(J54:Y54)</f>
-        <v>86.6666666666667</v>
+        <v>84.75</v>
       </c>
       <c r="J54" s="1" t="n">
         <v>80</v>
@@ -2890,6 +3028,9 @@
       </c>
       <c r="L54" s="0" t="n">
         <v>86</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,7 +3061,7 @@
       </c>
       <c r="I55" s="2" t="n">
         <f aca="false">AVERAGE(J55:Y55)</f>
-        <v>74.3333333333333</v>
+        <v>77.25</v>
       </c>
       <c r="J55" s="1" t="n">
         <v>65</v>
@@ -2930,6 +3071,9 @@
       </c>
       <c r="L55" s="0" t="n">
         <v>84</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,7 +3104,7 @@
       </c>
       <c r="I56" s="2" t="n">
         <f aca="false">AVERAGE(J56:Y56)</f>
-        <v>80</v>
+        <v>82.25</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>85</v>
@@ -2970,6 +3114,9 @@
       </c>
       <c r="L56" s="0" t="n">
         <v>84</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +3147,7 @@
       </c>
       <c r="I57" s="2" t="n">
         <f aca="false">AVERAGE(J57:Y57)</f>
-        <v>76</v>
+        <v>76.5</v>
       </c>
       <c r="J57" s="1" t="n">
         <v>69</v>
@@ -3010,6 +3157,9 @@
       </c>
       <c r="L57" s="0" t="n">
         <v>88</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,7 +3190,7 @@
       </c>
       <c r="I58" s="2" t="n">
         <f aca="false">AVERAGE(J58:Y58)</f>
-        <v>66.6666666666667</v>
+        <v>64</v>
       </c>
       <c r="J58" s="1" t="n">
         <v>86</v>
@@ -3050,6 +3200,9 @@
       </c>
       <c r="L58" s="0" t="n">
         <v>51</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,7 +3233,7 @@
       </c>
       <c r="I59" s="2" t="n">
         <f aca="false">AVERAGE(J59:Y59)</f>
-        <v>72</v>
+        <v>75.75</v>
       </c>
       <c r="J59" s="1" t="n">
         <v>80</v>
@@ -3090,6 +3243,9 @@
       </c>
       <c r="L59" s="0" t="n">
         <v>74</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,7 +3276,7 @@
       </c>
       <c r="I60" s="2" t="n">
         <f aca="false">AVERAGE(J60:Y60)</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J60" s="1" t="n">
         <v>69</v>
@@ -3130,6 +3286,9 @@
       </c>
       <c r="L60" s="0" t="n">
         <v>76</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,7 +3319,7 @@
       </c>
       <c r="I61" s="2" t="n">
         <f aca="false">AVERAGE(J61:Y61)</f>
-        <v>63</v>
+        <v>60.5</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>65</v>
@@ -3170,6 +3329,9 @@
       </c>
       <c r="L61" s="0" t="n">
         <v>59</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3196,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="2" t="n">
         <f aca="false">AVERAGE(J62:Y62)</f>
@@ -3205,10 +3367,230 @@
       <c r="L62" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="N62" s="3"/>
+      <c r="M62" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f aca="false">D63&amp;E63</f>
+        <v>los grandesTOP</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <f aca="false">AVERAGE(J63:Y63)</f>
+        <v>70</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y62"/>
+  <autoFilter ref="A1:Y64"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3228,132 +3610,132 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="1" sqref="F64:H64 I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <f aca="false">VLOOKUP($A2&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>77.6666666666667</v>
-      </c>
-      <c r="C2" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <f aca="false">VLOOKUP($A2&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>84</v>
-      </c>
-      <c r="D2" s="4" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <f aca="false">VLOOKUP($A2&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>85</v>
-      </c>
-      <c r="E2" s="4" t="n">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <f aca="false">VLOOKUP($A2&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>87.3333333333333</v>
-      </c>
-      <c r="F2" s="4" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <f aca="false">VLOOKUP($A2&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>83.3333333333333</v>
-      </c>
-      <c r="G2" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <f aca="false">VLOOKUP($A2&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>86.6666666666667</v>
-      </c>
-      <c r="H2" s="4" t="n">
+        <v>84.75</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <f aca="false">AVERAGE(B2:G2)</f>
-        <v>84</v>
+        <v>81.4583333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <f aca="false">VLOOKUP($A3&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>82.6666666666667</v>
-      </c>
-      <c r="C3" s="4" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <f aca="false">VLOOKUP($A3&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>84.3333333333333</v>
-      </c>
-      <c r="D3" s="4" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <f aca="false">VLOOKUP($A3&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>79</v>
-      </c>
-      <c r="E3" s="4" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <f aca="false">VLOOKUP($A3&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>86.6666666666667</v>
-      </c>
-      <c r="F3" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <f aca="false">VLOOKUP($A3&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>82.6666666666667</v>
-      </c>
-      <c r="G3" s="4" t="n">
+        <v>82.25</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <f aca="false">VLOOKUP($A3&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>80</v>
-      </c>
-      <c r="H3" s="4" t="n">
+        <v>82.25</v>
+      </c>
+      <c r="H3" s="3" t="n">
         <f aca="false">AVERAGE(B3:G3)</f>
-        <v>82.5555555555556</v>
+        <v>83.5833333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="4" t="e">
+        <v>119</v>
+      </c>
+      <c r="B4" s="3" t="e">
         <f aca="false">VLOOKUP($A4&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="C4" s="4" t="e">
+      <c r="C4" s="3" t="e">
         <f aca="false">VLOOKUP($A4&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D4" s="4" t="e">
+      <c r="D4" s="3" t="e">
         <f aca="false">VLOOKUP($A4&amp;D$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="E4" s="4" t="e">
+      <c r="E4" s="3" t="e">
         <f aca="false">VLOOKUP($A4&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F4" s="4" t="e">
+      <c r="F4" s="3" t="e">
         <f aca="false">VLOOKUP($A4&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G4" s="4" t="e">
+      <c r="G4" s="3" t="e">
         <f aca="false">VLOOKUP($A4&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H4" s="4" t="e">
+      <c r="H4" s="3" t="e">
         <f aca="false">AVERAGE(B4:G4)</f>
         <v>#N/A</v>
       </c>
@@ -3362,231 +3744,231 @@
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <f aca="false">VLOOKUP($A5&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>79.6666666666667</v>
-      </c>
-      <c r="C5" s="4" t="n">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <f aca="false">VLOOKUP($A5&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>80</v>
-      </c>
-      <c r="D5" s="4" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D5" s="3" t="n">
         <f aca="false">VLOOKUP($A5&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>78.3333333333333</v>
-      </c>
-      <c r="E5" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <f aca="false">VLOOKUP($A5&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>79.6666666666667</v>
-      </c>
-      <c r="F5" s="4" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <f aca="false">VLOOKUP($A5&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>78.3333333333333</v>
-      </c>
-      <c r="G5" s="4" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <f aca="false">VLOOKUP($A5&amp;G$1,jogadores!$C:$I,7,0)</f>
         <v>80.3333333333333</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="3" t="n">
         <f aca="false">AVERAGE(B5:G5)</f>
-        <v>79.3888888888889</v>
+        <v>79.8055555555556</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <f aca="false">VLOOKUP($A6&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>77</v>
-      </c>
-      <c r="C6" s="4" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <f aca="false">VLOOKUP($A6&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>80.3333333333333</v>
-      </c>
-      <c r="D6" s="4" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="D6" s="3" t="n">
         <f aca="false">VLOOKUP($A6&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>77</v>
-      </c>
-      <c r="E6" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <f aca="false">VLOOKUP($A6&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>82.6666666666667</v>
-      </c>
-      <c r="F6" s="4" t="n">
+        <v>82</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <f aca="false">VLOOKUP($A6&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>81</v>
-      </c>
-      <c r="G6" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <f aca="false">VLOOKUP($A6&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>76</v>
-      </c>
-      <c r="H6" s="4" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <f aca="false">AVERAGE(B6:G6)</f>
-        <v>79</v>
+        <v>78.9166666666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <f aca="false">VLOOKUP($A7&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>68</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <f aca="false">VLOOKUP($A7&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>74.5</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="3" t="n">
         <f aca="false">VLOOKUP($A7&amp;D$1,jogadores!$C:$I,7,0)</f>
+        <v>72.75</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <f aca="false">VLOOKUP($A7&amp;E$1,jogadores!$C:$I,7,0)</f>
+        <v>80</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <f aca="false">VLOOKUP($A7&amp;F$1,jogadores!$C:$I,7,0)</f>
         <v>74</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <f aca="false">VLOOKUP($A7&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>81</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <f aca="false">VLOOKUP($A7&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>74.3333333333333</v>
-      </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="3" t="n">
         <f aca="false">VLOOKUP($A7&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>66.6666666666667</v>
-      </c>
-      <c r="H7" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <f aca="false">AVERAGE(B7:G7)</f>
-        <v>73.0833333333333</v>
+        <v>72.2083333333333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <f aca="false">VLOOKUP($A8&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>76.3333333333333</v>
-      </c>
-      <c r="C8" s="4" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <f aca="false">VLOOKUP($A8&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>76</v>
-      </c>
-      <c r="D8" s="4" t="n">
+        <v>79.25</v>
+      </c>
+      <c r="D8" s="3" t="n">
         <f aca="false">VLOOKUP($A8&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>77.3333333333333</v>
-      </c>
-      <c r="E8" s="4" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <f aca="false">VLOOKUP($A8&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>74</v>
-      </c>
-      <c r="F8" s="4" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <f aca="false">VLOOKUP($A8&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>73.3333333333333</v>
-      </c>
-      <c r="G8" s="4" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="G8" s="3" t="n">
         <f aca="false">VLOOKUP($A8&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>72</v>
-      </c>
-      <c r="H8" s="4" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="H8" s="3" t="n">
         <f aca="false">AVERAGE(B8:G8)</f>
-        <v>74.8333333333333</v>
+        <v>77.8333333333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <f aca="false">VLOOKUP($A9&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>67.3333333333333</v>
-      </c>
-      <c r="C9" s="4" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <f aca="false">VLOOKUP($A9&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>71.3333333333333</v>
-      </c>
-      <c r="D9" s="4" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="D9" s="3" t="n">
         <f aca="false">VLOOKUP($A9&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>80</v>
-      </c>
-      <c r="E9" s="4" t="n">
+        <v>84</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <f aca="false">VLOOKUP($A9&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>82.3333333333333</v>
-      </c>
-      <c r="F9" s="4" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <f aca="false">VLOOKUP($A9&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>80.3333333333333</v>
-      </c>
-      <c r="G9" s="4" t="n">
+        <v>83.75</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <f aca="false">VLOOKUP($A9&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>74.3333333333333</v>
-      </c>
-      <c r="H9" s="4" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="H9" s="3" t="n">
         <f aca="false">AVERAGE(B9:G9)</f>
-        <v>75.9444444444444</v>
+        <v>79.2083333333333</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <f aca="false">VLOOKUP($A10&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>72.3333333333333</v>
-      </c>
-      <c r="C10" s="4" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <f aca="false">VLOOKUP($A10&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>70</v>
-      </c>
-      <c r="D10" s="4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D10" s="3" t="n">
         <f aca="false">VLOOKUP($A10&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>68.3333333333333</v>
-      </c>
-      <c r="E10" s="4" t="n">
+        <v>65.75</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <f aca="false">VLOOKUP($A10&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>65.3333333333333</v>
-      </c>
-      <c r="F10" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <f aca="false">VLOOKUP($A10&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>68.3333333333333</v>
-      </c>
-      <c r="G10" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="G10" s="3" t="n">
         <f aca="false">VLOOKUP($A10&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>73</v>
-      </c>
-      <c r="H10" s="4" t="n">
+        <v>71</v>
+      </c>
+      <c r="H10" s="3" t="n">
         <f aca="false">AVERAGE(B10:G10)</f>
-        <v>69.5555555555556</v>
+        <v>67.5416666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <f aca="false">VLOOKUP($A11&amp;B$1,jogadores!$C:$I,7,0)</f>
         <v>69.6666666666667</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="3" t="n">
         <f aca="false">VLOOKUP($A11&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>64.3333333333333</v>
-      </c>
-      <c r="D11" s="4" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D11" s="3" t="n">
         <f aca="false">VLOOKUP($A11&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>66.6666666666667</v>
-      </c>
-      <c r="E11" s="4" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <f aca="false">VLOOKUP($A11&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>65.6666666666667</v>
-      </c>
-      <c r="F11" s="4" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <f aca="false">VLOOKUP($A11&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>64</v>
-      </c>
-      <c r="G11" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="G11" s="3" t="n">
         <f aca="false">VLOOKUP($A11&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>63</v>
-      </c>
-      <c r="H11" s="4" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="H11" s="3" t="n">
         <f aca="false">AVERAGE(B11:G11)</f>
-        <v>65.5555555555556</v>
+        <v>64.3611111111111</v>
       </c>
     </row>
   </sheetData>

--- a/cartinhas.xlsx
+++ b/cartinhas.xlsx
@@ -12,7 +12,7 @@
     <sheet name="times" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">jogadores!$A$1:$Y$64</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">jogadores!$A$1:$Y$70</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="126">
   <si>
     <t xml:space="preserve">nick</t>
   </si>
@@ -44,12 +44,12 @@
     <t xml:space="preserve">craque da semana</t>
   </si>
   <si>
+    <t xml:space="preserve">bragre</t>
+  </si>
+  <si>
     <t xml:space="preserve">mvp</t>
   </si>
   <si>
-    <t xml:space="preserve">bragre</t>
-  </si>
-  <si>
     <t xml:space="preserve">media</t>
   </si>
   <si>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">PNG</t>
   </si>
   <si>
-    <t xml:space="preserve">pain</t>
+    <t xml:space="preserve">pain gaming</t>
   </si>
   <si>
     <t xml:space="preserve">zay</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">intz</t>
   </si>
   <si>
-    <t xml:space="preserve">frostyy</t>
+    <t xml:space="preserve">frosty</t>
   </si>
   <si>
     <t xml:space="preserve">netuno</t>
@@ -365,6 +365,27 @@
     <t xml:space="preserve">hidan</t>
   </si>
   <si>
+    <t xml:space="preserve">scary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tioben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darakeHero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piloto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavalo</t>
+  </si>
+  <si>
     <t xml:space="preserve">top</t>
   </si>
   <si>
@@ -381,9 +402,6 @@
   </si>
   <si>
     <t xml:space="preserve">média</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pain gaming</t>
   </si>
 </sst>
 </file>
@@ -513,16 +531,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,18 +692,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y130"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F64" activeCellId="0" sqref="F64:H64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R52" activeCellId="0" sqref="R52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="15" min="10" style="0" width="11.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,7 +783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -790,14 +804,14 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <f aca="false">AVERAGE(J2:Y2)</f>
-        <v>83.5</v>
+        <v>79.4444444444444</v>
       </c>
       <c r="J2" s="1" t="n">
         <v>88</v>
@@ -811,8 +825,23 @@
       <c r="M2" s="0" t="n">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N2" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -833,14 +862,14 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="1" t="n">
         <f aca="false">AVERAGE(J3:Y3)</f>
-        <v>83</v>
+        <v>80.7777777777778</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>80</v>
@@ -854,8 +883,23 @@
       <c r="M3" s="0" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N3" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -864,7 +908,7 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">D4&amp;E4</f>
-        <v>painADC</v>
+        <v>pain gamingADC</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
@@ -876,14 +920,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
         <f aca="false">AVERAGE(J4:Y4)</f>
-        <v>86.75</v>
+        <v>86.1111111111111</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>81</v>
@@ -897,8 +941,23 @@
       <c r="M4" s="0" t="n">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -922,11 +981,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
         <f aca="false">AVERAGE(J5:Y5)</f>
-        <v>81</v>
+        <v>79.2222222222222</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>81</v>
@@ -940,8 +999,23 @@
       <c r="M5" s="0" t="n">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N5" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -962,14 +1036,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="n">
         <f aca="false">AVERAGE(J6:Y6)</f>
-        <v>86.25</v>
+        <v>82.8888888888889</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>88</v>
@@ -983,8 +1057,23 @@
       <c r="M6" s="0" t="n">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N6" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1005,14 +1094,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <f aca="false">AVERAGE(J7:Y7)</f>
-        <v>79.5</v>
+        <v>78.4444444444444</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>78</v>
@@ -1026,8 +1115,23 @@
       <c r="M7" s="0" t="n">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N7" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1036,7 +1140,7 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">D8&amp;E8</f>
-        <v>painTOP</v>
+        <v>pain gamingTOP</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
@@ -1048,14 +1152,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <f aca="false">AVERAGE(J8:Y8)</f>
-        <v>85</v>
+        <v>84.7777777777778</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>76</v>
@@ -1069,8 +1173,23 @@
       <c r="M8" s="0" t="n">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N8" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1091,14 +1210,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
         <f aca="false">AVERAGE(J9:Y9)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>81</v>
@@ -1112,8 +1231,23 @@
       <c r="M9" s="0" t="n">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N9" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1134,14 +1268,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="1" t="n">
         <f aca="false">AVERAGE(J10:Y10)</f>
-        <v>78.75</v>
+        <v>81.4444444444444</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>73</v>
@@ -1155,8 +1289,23 @@
       <c r="M10" s="0" t="n">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N10" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1182,9 +1331,9 @@
       <c r="H11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="1" t="n">
         <f aca="false">AVERAGE(J11:Y11)</f>
-        <v>82.25</v>
+        <v>82</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>83</v>
@@ -1198,8 +1347,23 @@
       <c r="M11" s="0" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N11" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1220,12 +1384,12 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="1" t="n">
         <f aca="false">AVERAGE(J12:Y12)</f>
         <v>80</v>
       </c>
@@ -1241,8 +1405,23 @@
       <c r="M12" s="0" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N12" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -1263,14 +1442,14 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="1" t="n">
         <f aca="false">AVERAGE(J13:Y13)</f>
-        <v>84.5</v>
+        <v>84.8888888888889</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>85</v>
@@ -1284,8 +1463,23 @@
       <c r="M13" s="0" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N13" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -1311,9 +1505,9 @@
       <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="1" t="n">
         <f aca="false">AVERAGE(J14:Y14)</f>
-        <v>81.5</v>
+        <v>82.4444444444444</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>69</v>
@@ -1327,8 +1521,23 @@
       <c r="M14" s="0" t="n">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N14" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1337,7 +1546,7 @@
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">D15&amp;E15</f>
-        <v>painMID</v>
+        <v>pain gamingMID</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>33</v>
@@ -1346,17 +1555,17 @@
         <v>30</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="n">
         <f aca="false">AVERAGE(J15:Y15)</f>
-        <v>80.25</v>
+        <v>83.5555555555556</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>73</v>
@@ -1370,8 +1579,23 @@
       <c r="M15" s="0" t="n">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N15" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1392,14 +1616,14 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="1" t="n">
         <f aca="false">AVERAGE(J16:Y16)</f>
-        <v>82</v>
+        <v>83.1111111111111</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>80</v>
@@ -1413,8 +1637,23 @@
       <c r="M16" s="0" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N16" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1435,14 +1674,14 @@
         <v>0</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="1" t="n">
         <f aca="false">AVERAGE(J17:Y17)</f>
-        <v>84.25</v>
+        <v>84.7777777777778</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>75</v>
@@ -1454,10 +1693,25 @@
         <v>89</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1483,9 +1737,9 @@
       <c r="H18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="1" t="n">
         <f aca="false">AVERAGE(J18:Y18)</f>
-        <v>80.25</v>
+        <v>78.5555555555556</v>
       </c>
       <c r="J18" s="1" t="n">
         <v>78</v>
@@ -1499,8 +1753,23 @@
       <c r="M18" s="0" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N18" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1524,11 +1793,11 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
         <f aca="false">AVERAGE(J19:Y19)</f>
-        <v>79.25</v>
+        <v>80.8888888888889</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>70</v>
@@ -1542,8 +1811,23 @@
       <c r="M19" s="0" t="n">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N19" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1569,9 +1853,9 @@
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="1" t="n">
         <f aca="false">AVERAGE(J20:Y20)</f>
-        <v>79.25</v>
+        <v>77.1111111111111</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>80</v>
@@ -1585,8 +1869,23 @@
       <c r="M20" s="0" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N20" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1612,9 +1911,9 @@
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="1" t="n">
         <f aca="false">AVERAGE(J21:Y21)</f>
-        <v>80</v>
+        <v>81.5555555555556</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>82</v>
@@ -1628,8 +1927,23 @@
       <c r="M21" s="0" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N21" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1638,7 +1952,7 @@
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">D22&amp;E22</f>
-        <v>painSUP</v>
+        <v>pain gamingSUP</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>33</v>
@@ -1647,7 +1961,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>0</v>
@@ -1655,9 +1969,9 @@
       <c r="H22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="1" t="n">
         <f aca="false">AVERAGE(J22:Y22)</f>
-        <v>79.75</v>
+        <v>83.7777777777778</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>72</v>
@@ -1671,8 +1985,23 @@
       <c r="M22" s="0" t="n">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N22" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -1693,14 +2022,14 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="1" t="n">
         <f aca="false">AVERAGE(J23:Y23)</f>
-        <v>79.5</v>
+        <v>77.8888888888889</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>88</v>
@@ -1714,8 +2043,23 @@
       <c r="M23" s="0" t="n">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N23" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
@@ -1739,11 +2083,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="n">
         <f aca="false">AVERAGE(J24:Y24)</f>
-        <v>78</v>
+        <v>79.3333333333333</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>72</v>
@@ -1757,8 +2101,23 @@
       <c r="M24" s="0" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N24" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1776,17 +2135,17 @@
         <v>42</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="1" t="n">
         <f aca="false">AVERAGE(J25:Y25)</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>67</v>
@@ -1800,8 +2159,23 @@
       <c r="M25" s="0" t="n">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N25" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -1825,11 +2199,11 @@
         <v>1</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="n">
         <f aca="false">AVERAGE(J26:Y26)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J26" s="1" t="n">
         <v>71</v>
@@ -1843,8 +2217,23 @@
       <c r="M26" s="0" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N26" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
@@ -1865,14 +2254,14 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
         <f aca="false">AVERAGE(J27:Y27)</f>
-        <v>79.25</v>
+        <v>76.6666666666667</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>87</v>
@@ -1886,8 +2275,23 @@
       <c r="M27" s="0" t="n">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N27" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -1908,14 +2312,14 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="1" t="n">
         <f aca="false">AVERAGE(J28:Y28)</f>
-        <v>84</v>
+        <v>84.1111111111111</v>
       </c>
       <c r="J28" s="1" t="n">
         <v>66</v>
@@ -1929,8 +2333,23 @@
       <c r="M28" s="0" t="n">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N28" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -1954,11 +2373,11 @@
         <v>0</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="n">
         <f aca="false">AVERAGE(J29:Y29)</f>
-        <v>75.75</v>
+        <v>74.7777777777778</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>81</v>
@@ -1972,8 +2391,23 @@
       <c r="M29" s="0" t="n">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N29" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -1991,17 +2425,17 @@
         <v>35</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="1" t="n">
         <f aca="false">AVERAGE(J30:Y30)</f>
-        <v>83.75</v>
+        <v>84.8888888888889</v>
       </c>
       <c r="J30" s="1" t="n">
         <v>70</v>
@@ -2015,8 +2449,23 @@
       <c r="M30" s="0" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N30" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -2042,7 +2491,7 @@
       <c r="H31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="1" t="n">
         <f aca="false">AVERAGE(J31:Y31)</f>
         <v>74.5</v>
       </c>
@@ -2053,7 +2502,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>76</v>
       </c>
@@ -2062,7 +2511,7 @@
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">D32&amp;E32</f>
-        <v>painJG</v>
+        <v>pain gamingJG</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>33</v>
@@ -2074,14 +2523,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="n">
         <f aca="false">AVERAGE(J32:Y32)</f>
-        <v>78.75</v>
+        <v>82.7777777777778</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>68</v>
@@ -2093,10 +2542,25 @@
         <v>79</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -2117,14 +2581,14 @@
         <v>0</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="1" t="n">
         <f aca="false">AVERAGE(J33:Y33)</f>
-        <v>78.25</v>
+        <v>77.4444444444444</v>
       </c>
       <c r="J33" s="1" t="n">
         <v>85</v>
@@ -2138,8 +2602,23 @@
       <c r="M33" s="0" t="n">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N33" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -2165,9 +2644,9 @@
       <c r="H34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="1" t="n">
         <f aca="false">AVERAGE(J34:Y34)</f>
-        <v>74</v>
+        <v>71.7777777777778</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>80</v>
@@ -2181,8 +2660,23 @@
       <c r="M34" s="0" t="n">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N34" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>79</v>
       </c>
@@ -2208,9 +2702,9 @@
       <c r="H35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="1" t="n">
         <f aca="false">AVERAGE(J35:Y35)</f>
-        <v>72.75</v>
+        <v>75.6666666666667</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>83</v>
@@ -2224,8 +2718,23 @@
       <c r="M35" s="0" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N35" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -2246,14 +2755,14 @@
         <v>0</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="1" t="n">
         <f aca="false">AVERAGE(J36:Y36)</f>
-        <v>78</v>
+        <v>78.4444444444444</v>
       </c>
       <c r="J36" s="1" t="n">
         <v>71</v>
@@ -2267,8 +2776,23 @@
       <c r="M36" s="0" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N36" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -2289,14 +2813,14 @@
         <v>0</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="n">
         <f aca="false">AVERAGE(J37:Y37)</f>
-        <v>78.5</v>
+        <v>76.2222222222222</v>
       </c>
       <c r="J37" s="1" t="n">
         <v>82</v>
@@ -2310,8 +2834,23 @@
       <c r="M37" s="0" t="n">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N37" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>82</v>
       </c>
@@ -2332,14 +2871,14 @@
         <v>0</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="n">
         <f aca="false">AVERAGE(J38:Y38)</f>
-        <v>68</v>
+        <v>68.5</v>
       </c>
       <c r="J38" s="1" t="n">
         <v>81</v>
@@ -2350,8 +2889,11 @@
       <c r="L38" s="0" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M38" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>83</v>
       </c>
@@ -2377,9 +2919,9 @@
       <c r="H39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="1" t="n">
         <f aca="false">AVERAGE(J39:Y39)</f>
-        <v>69.6666666666667</v>
+        <v>71</v>
       </c>
       <c r="J39" s="1" t="n">
         <v>71</v>
@@ -2390,8 +2932,26 @@
       <c r="L39" s="0" t="n">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M39" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>86</v>
       </c>
@@ -2417,9 +2977,9 @@
       <c r="H40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="1" t="n">
         <f aca="false">AVERAGE(J40:Y40)</f>
-        <v>76.75</v>
+        <v>77.3333333333333</v>
       </c>
       <c r="J40" s="1" t="n">
         <v>72</v>
@@ -2433,8 +2993,23 @@
       <c r="M40" s="0" t="n">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N40" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -2458,11 +3033,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="n">
         <f aca="false">AVERAGE(J41:Y41)</f>
-        <v>70.5</v>
+        <v>68.6666666666667</v>
       </c>
       <c r="J41" s="1" t="n">
         <v>68</v>
@@ -2476,8 +3051,14 @@
       <c r="M41" s="0" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N41" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -2498,14 +3079,14 @@
         <v>0</v>
       </c>
       <c r="G42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="1" t="n">
         <f aca="false">AVERAGE(J42:Y42)</f>
-        <v>68</v>
+        <v>68.5</v>
       </c>
       <c r="J42" s="1" t="n">
         <v>64</v>
@@ -2519,8 +3100,14 @@
       <c r="M42" s="0" t="n">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N42" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
@@ -2546,9 +3133,9 @@
       <c r="H43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="1" t="n">
         <f aca="false">AVERAGE(J43:Y43)</f>
-        <v>66</v>
+        <v>65.5</v>
       </c>
       <c r="J43" s="1" t="n">
         <v>62</v>
@@ -2562,8 +3149,14 @@
       <c r="M43" s="0" t="n">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N43" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
@@ -2584,14 +3177,14 @@
         <v>0</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="n">
         <f aca="false">AVERAGE(J44:Y44)</f>
-        <v>61.5</v>
+        <v>58.8</v>
       </c>
       <c r="J44" s="1" t="n">
         <v>72</v>
@@ -2605,8 +3198,11 @@
       <c r="M44" s="0" t="n">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N44" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>93</v>
       </c>
@@ -2627,14 +3223,14 @@
         <v>0</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="n">
         <f aca="false">AVERAGE(J45:Y45)</f>
-        <v>65.75</v>
+        <v>64.3333333333333</v>
       </c>
       <c r="J45" s="1" t="n">
         <v>65</v>
@@ -2648,8 +3244,14 @@
       <c r="M45" s="0" t="n">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N45" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -2675,9 +3277,9 @@
       <c r="H46" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="1" t="n">
         <f aca="false">AVERAGE(J46:Y46)</f>
-        <v>63.75</v>
+        <v>68</v>
       </c>
       <c r="J46" s="1" t="n">
         <v>68</v>
@@ -2691,8 +3293,23 @@
       <c r="M46" s="0" t="n">
         <v>58</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N46" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -2713,14 +3330,14 @@
         <v>0</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="n">
         <f aca="false">AVERAGE(J47:Y47)</f>
-        <v>67.75</v>
+        <v>66.6666666666667</v>
       </c>
       <c r="J47" s="1" t="n">
         <v>63</v>
@@ -2734,8 +3351,23 @@
       <c r="M47" s="0" t="n">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N47" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>96</v>
       </c>
@@ -2756,14 +3388,14 @@
         <v>0</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="n">
         <f aca="false">AVERAGE(J48:Y48)</f>
-        <v>71.25</v>
+        <v>77</v>
       </c>
       <c r="J48" s="1" t="n">
         <v>66</v>
@@ -2777,8 +3409,23 @@
       <c r="M48" s="0" t="n">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N48" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
@@ -2802,11 +3449,11 @@
         <v>0</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="n">
         <f aca="false">AVERAGE(J49:Y49)</f>
-        <v>63</v>
+        <v>63.3333333333333</v>
       </c>
       <c r="J49" s="1" t="n">
         <v>67</v>
@@ -2820,8 +3467,23 @@
       <c r="M49" s="0" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N49" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -2842,14 +3504,14 @@
         <v>0</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="n">
         <f aca="false">AVERAGE(J50:Y50)</f>
-        <v>64</v>
+        <v>64.1666666666667</v>
       </c>
       <c r="J50" s="1" t="n">
         <v>61</v>
@@ -2863,8 +3525,14 @@
       <c r="M50" s="0" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N50" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
@@ -2888,11 +3556,11 @@
         <v>1</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="n">
         <f aca="false">AVERAGE(J51:Y51)</f>
-        <v>74.75</v>
+        <v>79.3333333333333</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>64</v>
@@ -2905,6 +3573,21 @@
       </c>
       <c r="M51" s="0" t="n">
         <v>85</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,9 +3616,9 @@
       <c r="H52" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="1" t="n">
         <f aca="false">AVERAGE(J52:Y52)</f>
-        <v>80.3333333333333</v>
+        <v>82</v>
       </c>
       <c r="J52" s="1" t="n">
         <v>68</v>
@@ -2945,6 +3628,24 @@
       </c>
       <c r="L52" s="0" t="n">
         <v>83</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,7 +3657,7 @@
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">D53&amp;E53</f>
-        <v>paincoach</v>
+        <v>pain gamingcoach</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>33</v>
@@ -2973,9 +3674,9 @@
       <c r="H53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="I53" s="1" t="n">
         <f aca="false">AVERAGE(J53:Y53)</f>
-        <v>79.25</v>
+        <v>82.2222222222222</v>
       </c>
       <c r="J53" s="1" t="n">
         <v>70</v>
@@ -2988,6 +3689,21 @@
       </c>
       <c r="M53" s="0" t="n">
         <v>87</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,9 +3732,9 @@
       <c r="H54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="1" t="n">
         <f aca="false">AVERAGE(J54:Y54)</f>
-        <v>84.75</v>
+        <v>82</v>
       </c>
       <c r="J54" s="1" t="n">
         <v>80</v>
@@ -3031,6 +3747,21 @@
       </c>
       <c r="M54" s="0" t="n">
         <v>79</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,9 +3790,9 @@
       <c r="H55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I55" s="2" t="n">
+      <c r="I55" s="1" t="n">
         <f aca="false">AVERAGE(J55:Y55)</f>
-        <v>77.25</v>
+        <v>81.4444444444444</v>
       </c>
       <c r="J55" s="1" t="n">
         <v>65</v>
@@ -3073,7 +3804,22 @@
         <v>84</v>
       </c>
       <c r="M55" s="0" t="n">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,9 +3848,9 @@
       <c r="H56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I56" s="1" t="n">
         <f aca="false">AVERAGE(J56:Y56)</f>
-        <v>82.25</v>
+        <v>81.4444444444444</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>85</v>
@@ -3113,10 +3859,25 @@
         <v>71</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,9 +3906,9 @@
       <c r="H57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="1" t="n">
         <f aca="false">AVERAGE(J57:Y57)</f>
-        <v>76.5</v>
+        <v>77.3333333333333</v>
       </c>
       <c r="J57" s="1" t="n">
         <v>69</v>
@@ -3160,6 +3921,21 @@
       </c>
       <c r="M57" s="0" t="n">
         <v>78</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,9 +3964,9 @@
       <c r="H58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="I58" s="1" t="n">
         <f aca="false">AVERAGE(J58:Y58)</f>
-        <v>64</v>
+        <v>69.4444444444444</v>
       </c>
       <c r="J58" s="1" t="n">
         <v>86</v>
@@ -3203,6 +3979,21 @@
       </c>
       <c r="M58" s="0" t="n">
         <v>56</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,9 +4022,9 @@
       <c r="H59" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="I59" s="1" t="n">
         <f aca="false">AVERAGE(J59:Y59)</f>
-        <v>75.75</v>
+        <v>74.3333333333333</v>
       </c>
       <c r="J59" s="1" t="n">
         <v>80</v>
@@ -3246,6 +4037,21 @@
       </c>
       <c r="M59" s="0" t="n">
         <v>87</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,9 +4080,9 @@
       <c r="H60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="1" t="n">
         <f aca="false">AVERAGE(J60:Y60)</f>
-        <v>71</v>
+        <v>72.4444444444444</v>
       </c>
       <c r="J60" s="1" t="n">
         <v>69</v>
@@ -3289,6 +4095,21 @@
       </c>
       <c r="M60" s="0" t="n">
         <v>65</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,9 +4138,9 @@
       <c r="H61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="I61" s="1" t="n">
         <f aca="false">AVERAGE(J61:Y61)</f>
-        <v>60.5</v>
+        <v>60</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>65</v>
@@ -3328,13 +4149,16 @@
         <v>65</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>53</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N61" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>111</v>
       </c>
@@ -3358,11 +4182,11 @@
         <v>0</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="n">
         <f aca="false">AVERAGE(J62:Y62)</f>
-        <v>66</v>
+        <v>70.7142857142857</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>66</v>
@@ -3370,9 +4194,23 @@
       <c r="M62" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N62" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>112</v>
       </c>
@@ -3396,201 +4234,301 @@
         <v>0</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1" t="n">
         <f aca="false">AVERAGE(J63:Y63)</f>
+        <v>76.3333333333333</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f aca="false">D64&amp;E64</f>
+        <v>kabumJG</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <f aca="false">AVERAGE(J64:Y64)</f>
+        <v>71.5</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q64" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="M63" s="0" t="n">
+      <c r="R64" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f aca="false">D65&amp;E65</f>
+        <v>kabumcoach</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <f aca="false">AVERAGE(J65:Y65)</f>
+        <v>73.75</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q65" s="0" t="n">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="1"/>
+      <c r="R65" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f aca="false">D66&amp;E66</f>
+        <v>libertyTOP</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <f aca="false">AVERAGE(J66:Y66)</f>
+        <v>67.5</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f aca="false">D67&amp;E67</f>
+        <v>libertyJG</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <f aca="false">AVERAGE(J67:Y67)</f>
+        <v>70</v>
+      </c>
+      <c r="Q67" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f aca="false">D68&amp;E68</f>
+        <v>libertyMID</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <f aca="false">AVERAGE(J68:Y68)</f>
+        <v>69</v>
+      </c>
+      <c r="Q68" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f aca="false">D69&amp;E69</f>
+        <v>libertyADC</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <f aca="false">AVERAGE(J69:Y69)</f>
+        <v>66.5</v>
+      </c>
+      <c r="Q69" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f aca="false">D70&amp;E70</f>
+        <v>libertySUP</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <f aca="false">AVERAGE(J70:Y70)</f>
+        <v>70.5</v>
+      </c>
+      <c r="Q70" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y64"/>
+  <autoFilter ref="A1:Y70">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="coach"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3610,365 +4548,365 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="1" sqref="F64:H64 I8"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>77</v>
-      </c>
-      <c r="C2" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>79.5</v>
-      </c>
-      <c r="D2" s="3" t="n">
+        <v>78.4444444444444</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>83</v>
-      </c>
-      <c r="E2" s="3" t="n">
+        <v>80.7777777777778</v>
+      </c>
+      <c r="E2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>83.5</v>
-      </c>
-      <c r="F2" s="3" t="n">
+        <v>79.4444444444444</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>81</v>
-      </c>
-      <c r="G2" s="3" t="n">
+        <v>79.2222222222222</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <f aca="false">VLOOKUP($A2&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>84.75</v>
-      </c>
-      <c r="H2" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <f aca="false">AVERAGE(B2:G2)</f>
-        <v>81.4583333333333</v>
+        <v>79.6481481481482</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>84.5</v>
-      </c>
-      <c r="C3" s="3" t="n">
+        <v>84.8888888888889</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>86.25</v>
-      </c>
-      <c r="D3" s="3" t="n">
+        <v>82.8888888888889</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>79.25</v>
-      </c>
-      <c r="E3" s="3" t="n">
+        <v>77.1111111111111</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>87</v>
-      </c>
-      <c r="F3" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>82.25</v>
-      </c>
-      <c r="G3" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <f aca="false">VLOOKUP($A3&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>82.25</v>
-      </c>
-      <c r="H3" s="3" t="n">
+        <v>81.4444444444444</v>
+      </c>
+      <c r="H3" s="2" t="n">
         <f aca="false">AVERAGE(B3:G3)</f>
-        <v>83.5833333333333</v>
+        <v>82.2222222222222</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="3" t="e">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <f aca="false">VLOOKUP($A4&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="3" t="e">
+        <v>84.7777777777778</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <f aca="false">VLOOKUP($A4&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D4" s="3" t="e">
+        <v>82.7777777777778</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <f aca="false">VLOOKUP($A4&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="3" t="e">
+        <v>83.5555555555556</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <f aca="false">VLOOKUP($A4&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="3" t="e">
+        <v>86.1111111111111</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <f aca="false">VLOOKUP($A4&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G4" s="3" t="e">
+        <v>83.7777777777778</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <f aca="false">VLOOKUP($A4&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H4" s="3" t="e">
+        <v>82.2222222222222</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <f aca="false">AVERAGE(B4:G4)</f>
-        <v>#N/A</v>
+        <v>83.8703703703704</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>81</v>
-      </c>
-      <c r="C5" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>81.5</v>
-      </c>
-      <c r="D5" s="3" t="n">
+        <v>82.4444444444444</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>78</v>
-      </c>
-      <c r="E5" s="3" t="n">
+        <v>79.3333333333333</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>78.75</v>
-      </c>
-      <c r="F5" s="3" t="n">
+        <v>81.4444444444444</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>79.25</v>
-      </c>
-      <c r="G5" s="3" t="n">
+        <v>80.8888888888889</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <f aca="false">VLOOKUP($A5&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>80.3333333333333</v>
-      </c>
-      <c r="H5" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <f aca="false">AVERAGE(B5:G5)</f>
-        <v>79.8055555555556</v>
+        <v>81.5185185185185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>76.75</v>
-      </c>
-      <c r="C6" s="3" t="n">
+        <v>77.3333333333333</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>80.25</v>
-      </c>
-      <c r="D6" s="3" t="n">
+        <v>78.5555555555556</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>78</v>
-      </c>
-      <c r="E6" s="3" t="n">
+        <v>78.4444444444444</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>82</v>
-      </c>
-      <c r="F6" s="3" t="n">
+        <v>83.1111111111111</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>80</v>
-      </c>
-      <c r="G6" s="3" t="n">
+        <v>81.5555555555556</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <f aca="false">VLOOKUP($A6&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>76.5</v>
-      </c>
-      <c r="H6" s="3" t="n">
+        <v>77.3333333333333</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <f aca="false">AVERAGE(B6:G6)</f>
-        <v>78.9166666666667</v>
+        <v>79.3888888888889</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>68</v>
-      </c>
-      <c r="C7" s="3" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;C$1,jogadores!$C:$I,7,0)</f>
         <v>74.5</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>72.75</v>
-      </c>
-      <c r="E7" s="3" t="n">
+        <v>75.6666666666667</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;E$1,jogadores!$C:$I,7,0)</f>
         <v>80</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>74</v>
-      </c>
-      <c r="G7" s="3" t="n">
+        <v>71.7777777777778</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <f aca="false">VLOOKUP($A7&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>64</v>
-      </c>
-      <c r="H7" s="3" t="n">
+        <v>69.4444444444444</v>
+      </c>
+      <c r="H7" s="2" t="n">
         <f aca="false">AVERAGE(B7:G7)</f>
-        <v>72.2083333333333</v>
+        <v>73.3148148148148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>78.5</v>
-      </c>
-      <c r="C8" s="3" t="n">
+        <v>76.2222222222222</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>79.25</v>
-      </c>
-      <c r="D8" s="3" t="n">
+        <v>76.6666666666667</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>79.5</v>
-      </c>
-      <c r="E8" s="3" t="n">
+        <v>77.8888888888889</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>78.25</v>
-      </c>
-      <c r="F8" s="3" t="n">
+        <v>77.4444444444444</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>75.75</v>
-      </c>
-      <c r="G8" s="3" t="n">
+        <v>74.7777777777778</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <f aca="false">VLOOKUP($A8&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>75.75</v>
-      </c>
-      <c r="H8" s="3" t="n">
+        <v>74.3333333333333</v>
+      </c>
+      <c r="H8" s="2" t="n">
         <f aca="false">AVERAGE(B8:G8)</f>
-        <v>77.8333333333333</v>
+        <v>76.2222222222222</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>71.25</v>
-      </c>
-      <c r="C9" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>74.75</v>
-      </c>
-      <c r="D9" s="3" t="n">
+        <v>79.3333333333333</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>84</v>
-      </c>
-      <c r="E9" s="3" t="n">
+        <v>84.1111111111111</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>84.25</v>
-      </c>
-      <c r="F9" s="3" t="n">
+        <v>84.7777777777778</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>83.75</v>
-      </c>
-      <c r="G9" s="3" t="n">
+        <v>84.8888888888889</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <f aca="false">VLOOKUP($A9&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>77.25</v>
-      </c>
-      <c r="H9" s="3" t="n">
+        <v>81.4444444444444</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <f aca="false">AVERAGE(B9:G9)</f>
-        <v>79.2083333333333</v>
+        <v>81.9259259259259</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>70.5</v>
-      </c>
-      <c r="C10" s="3" t="n">
+        <v>68.6666666666667</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>68</v>
-      </c>
-      <c r="D10" s="3" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>65.75</v>
-      </c>
-      <c r="E10" s="3" t="n">
+        <v>64.3333333333333</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>64</v>
-      </c>
-      <c r="F10" s="3" t="n">
+        <v>64.1666666666667</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>66</v>
-      </c>
-      <c r="G10" s="3" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <f aca="false">VLOOKUP($A10&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>71</v>
-      </c>
-      <c r="H10" s="3" t="n">
+        <v>72.4444444444444</v>
+      </c>
+      <c r="H10" s="2" t="n">
         <f aca="false">AVERAGE(B10:G10)</f>
-        <v>67.5416666666667</v>
+        <v>67.2685185185185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;B$1,jogadores!$C:$I,7,0)</f>
-        <v>69.6666666666667</v>
-      </c>
-      <c r="C11" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;C$1,jogadores!$C:$I,7,0)</f>
-        <v>61.5</v>
-      </c>
-      <c r="D11" s="3" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;D$1,jogadores!$C:$I,7,0)</f>
-        <v>67.75</v>
-      </c>
-      <c r="E11" s="3" t="n">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;E$1,jogadores!$C:$I,7,0)</f>
-        <v>63.75</v>
-      </c>
-      <c r="F11" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;F$1,jogadores!$C:$I,7,0)</f>
-        <v>63</v>
-      </c>
-      <c r="G11" s="3" t="n">
+        <v>63.3333333333333</v>
+      </c>
+      <c r="G11" s="2" t="n">
         <f aca="false">VLOOKUP($A11&amp;G$1,jogadores!$C:$I,7,0)</f>
-        <v>60.5</v>
-      </c>
-      <c r="H11" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <f aca="false">AVERAGE(B11:G11)</f>
-        <v>64.3611111111111</v>
+        <v>64.6333333333333</v>
       </c>
     </row>
   </sheetData>
